--- a/excel/finished/焦化/CK67-硫铵（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-硫铵（日）报表设计.xlsx
@@ -4,23 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="4.硫铵（日）" sheetId="1" r:id="rId1"/>
     <sheet name="_liuan_day_hour" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>6-7#  焦炉硫铵 操 作 记 录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年    月    日   </t>
   </si>
   <si>
     <t xml:space="preserve">    SGSSG-BSMCSA35-G010-01A</t>
@@ -417,11 +417,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -496,52 +497,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -556,13 +513,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -578,13 +596,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -593,11 +604,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -610,31 +628,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,19 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,13 +684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,7 +702,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,13 +726,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,13 +774,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,13 +792,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,73 +840,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,6 +1215,30 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,15 +1254,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1266,15 +1282,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1292,6 +1299,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1300,31 +1316,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1333,133 +1334,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -1535,7 +1536,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1940,7 +1941,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -2074,6 +2075,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="_metadata"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2337,7 +2351,7 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L2" sqref="L2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2382,8 +2396,9 @@
       <c r="I2" s="4"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="24" t="s">
-        <v>1</v>
+      <c r="L2" s="24" t="e">
+        <f>[1]_metadata!B1</f>
+        <v>#REF!</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
@@ -2391,16 +2406,16 @@
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
       <c r="R2" s="23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="15.6" customHeight="1" spans="1:23">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -2409,30 +2424,30 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M3" s="26"/>
       <c r="N3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="P3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="Q3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="R3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="S3" s="31" t="s">
         <v>11</v>
-      </c>
-      <c r="S3" s="31" t="s">
-        <v>12</v>
       </c>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -2443,26 +2458,26 @@
       <c r="A4" s="5"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
@@ -2480,35 +2495,35 @@
       <c r="A5" s="5"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>20</v>
-      </c>
       <c r="G5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="28" t="s">
-        <v>20</v>
-      </c>
       <c r="L5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="28" t="s">
         <v>19</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>20</v>
       </c>
       <c r="N5" s="28"/>
       <c r="O5" s="28"/>
@@ -2524,68 +2539,68 @@
     <row r="6" customFormat="1" ht="31.5" customHeight="1" spans="1:23">
       <c r="A6" s="5"/>
       <c r="B6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="38" t="s">
         <v>37</v>
-      </c>
-      <c r="S6" s="38" t="s">
-        <v>38</v>
       </c>
       <c r="T6" s="39"/>
       <c r="U6" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="V6" s="16" t="s">
+      <c r="W6" s="41" t="s">
         <v>40</v>
-      </c>
-      <c r="W6" s="41" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="14.1" customHeight="1" spans="2:23">
@@ -2657,10 +2672,10 @@
         <v/>
       </c>
       <c r="S7" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="44" t="s">
         <v>42</v>
-      </c>
-      <c r="T7" s="44" t="s">
-        <v>43</v>
       </c>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
@@ -2736,7 +2751,7 @@
       </c>
       <c r="S8" s="43"/>
       <c r="T8" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
@@ -2812,7 +2827,7 @@
       </c>
       <c r="S9" s="43"/>
       <c r="T9" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
@@ -2888,7 +2903,7 @@
       </c>
       <c r="S10" s="43"/>
       <c r="T10" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
@@ -2963,10 +2978,10 @@
         <v/>
       </c>
       <c r="S11" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="45" t="s">
         <v>46</v>
-      </c>
-      <c r="T11" s="45" t="s">
-        <v>47</v>
       </c>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
@@ -3042,7 +3057,7 @@
       </c>
       <c r="S12" s="43"/>
       <c r="T12" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
@@ -3117,7 +3132,7 @@
         <v/>
       </c>
       <c r="S13" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T13" s="45"/>
       <c r="U13" s="16"/>
@@ -4384,7 +4399,7 @@
     </row>
     <row r="31" customFormat="1" spans="2:23">
       <c r="B31" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -4410,7 +4425,7 @@
     </row>
     <row r="32" customFormat="1" spans="2:23">
       <c r="B32" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -4436,7 +4451,7 @@
     </row>
     <row r="33" customFormat="1" spans="2:23">
       <c r="B33" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -4462,7 +4477,7 @@
     </row>
     <row r="34" customFormat="1" ht="14.25" spans="2:23">
       <c r="B34" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -4488,21 +4503,21 @@
     </row>
     <row r="35" customFormat="1" ht="65.45" customHeight="1" spans="2:23">
       <c r="B35" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
       <c r="K35" s="29"/>
       <c r="L35" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M35" s="19"/>
       <c r="N35" s="19"/>
@@ -4518,21 +4533,21 @@
     </row>
     <row r="36" customFormat="1" ht="16.5" spans="2:23">
       <c r="B36" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="22"/>
       <c r="G36" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="22"/>
       <c r="L36" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M36" s="21"/>
       <c r="N36" s="21"/>
@@ -4600,52 +4615,52 @@
   <sheetData>
     <row r="1" customFormat="1" ht="45" spans="1:16">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/excel/finished/焦化/CK67-硫铵（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-硫铵（日）报表设计.xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="4.硫铵（日）" sheetId="1" r:id="rId1"/>
     <sheet name="_liuan_day_hour" sheetId="2" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
+    <sheet name="_analysis_day_shift" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -418,11 +417,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -497,32 +496,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,29 +524,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -565,8 +531,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,9 +549,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -604,15 +571,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -620,7 +588,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,10 +632,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -672,7 +671,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,7 +719,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,19 +779,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,55 +809,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,13 +827,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,61 +851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,23 +1221,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1273,15 +1257,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1300,8 +1275,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1322,10 +1321,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1334,133 +1333,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -2077,19 +2076,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="_metadata"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2350,7 +2336,7 @@
   <sheetPr/>
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2:Q2"/>
     </sheetView>
   </sheetViews>
@@ -2396,9 +2382,9 @@
       <c r="I2" s="4"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="24" t="e">
-        <f>[1]_metadata!B1</f>
-        <v>#REF!</v>
+      <c r="L2" s="24">
+        <f>_metadata!B1</f>
+        <v>0</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
@@ -4667,4 +4653,36 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel/finished/焦化/CK67-硫铵（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-硫铵（日）报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="4.硫铵（日）" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>6-7#  焦炉硫铵 操 作 记 录</t>
   </si>
@@ -30,6 +30,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -39,7 +40,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">      </t>
     </r>
@@ -48,6 +49,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -96,6 +98,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -105,6 +108,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>℃</t>
@@ -197,6 +201,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">产量
@@ -207,7 +212,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> t</t>
     </r>
@@ -218,6 +223,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">含氮量
@@ -228,7 +234,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>%</t>
     </r>
@@ -239,6 +245,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">游离酸
@@ -249,7 +256,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>%</t>
     </r>
@@ -283,7 +290,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -292,6 +299,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>夜班记事：</t>
@@ -300,7 +308,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -310,7 +318,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -318,6 +326,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白</t>
@@ -327,6 +336,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -335,7 +345,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -345,7 +355,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -353,6 +363,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中</t>
@@ -362,6 +373,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -370,7 +382,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -380,7 +392,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -389,6 +401,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>交班：</t>
@@ -397,7 +410,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
@@ -406,6 +419,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接班：</t>
@@ -415,15 +429,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +442,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -442,6 +450,7 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -449,6 +458,7 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -456,18 +466,21 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -475,6 +488,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -482,381 +496,71 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="38">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1217,256 +921,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1474,30 +936,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1510,92 +948,121 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1616,8 +1083,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1627,65 +1098,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1696,7 +1117,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1710,7 +1131,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -1902,7 +1323,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Line 2"/>
         <xdr:cNvSpPr>
@@ -1948,7 +1369,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Line 3"/>
         <xdr:cNvSpPr>
@@ -1994,7 +1415,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Line 5"/>
         <xdr:cNvSpPr>
@@ -2040,7 +1461,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Line 6"/>
         <xdr:cNvSpPr>
@@ -2328,15 +1749,15 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:Q2"/>
     </sheetView>
   </sheetViews>
@@ -2350,181 +1771,181 @@
     <col min="18" max="18" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="25.5" spans="2:18">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:23" ht="25.5">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
     </row>
-    <row r="2" customFormat="1" ht="15" spans="2:18">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24">
-        <f>_metadata!B1</f>
+    <row r="2" spans="1:23" ht="14.25">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="61">
+        <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="23" t="s">
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.6" customHeight="1" spans="1:23">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:23" ht="15.6" customHeight="1">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="21"/>
+      <c r="L3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27" t="s">
+      <c r="M3" s="23"/>
+      <c r="N3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="O3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="P3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="32"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="46"/>
     </row>
-    <row r="4" customFormat="1" ht="14.25" spans="1:23">
-      <c r="A4" s="5"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+    <row r="4" spans="1:23" ht="14.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="25"/>
+      <c r="I4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10" t="s">
+      <c r="K4" s="25"/>
+      <c r="L4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="36"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="49"/>
     </row>
-    <row r="5" customFormat="1" ht="14.25" spans="1:23">
-      <c r="A5" s="5"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+    <row r="5" spans="1:23" ht="14.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28" t="s">
+      <c r="I5" s="39"/>
+      <c r="J5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="36"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="49"/>
     </row>
-    <row r="6" customFormat="1" ht="31.5" customHeight="1" spans="1:23">
-      <c r="A6" s="5"/>
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="1:23" ht="31.5" customHeight="1">
+      <c r="A6" s="36"/>
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2575,1996 +1996,1983 @@
       <c r="R6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="38" t="s">
+      <c r="S6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="T6" s="39"/>
-      <c r="U6" s="40" t="s">
+      <c r="T6" s="27"/>
+      <c r="U6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="V6" s="16" t="s">
+      <c r="V6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="W6" s="41" t="s">
+      <c r="W6" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="14.1" customHeight="1" spans="2:23">
-      <c r="B7" s="15">
+    <row r="7" spans="1:23" ht="14.1" customHeight="1">
+      <c r="B7" s="7">
         <v>0</v>
       </c>
-      <c r="C7" s="16" t="str">
+      <c r="C7" s="8" t="str">
         <f>IF(_liuan_day_hour!A2="","",_liuan_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D7" s="16" t="str">
+      <c r="D7" s="8" t="str">
         <f>IF(_liuan_day_hour!B2="","",_liuan_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E7" s="16" t="str">
+      <c r="E7" s="8" t="str">
         <f>IF(_liuan_day_hour!C2="","",_liuan_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F7" s="16" t="str">
+      <c r="F7" s="8" t="str">
         <f>IF(_liuan_day_hour!D2="","",_liuan_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G7" s="16" t="str">
+      <c r="G7" s="8" t="str">
         <f>IF(_liuan_day_hour!E2="","",_liuan_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H7" s="16" t="str">
+      <c r="H7" s="8" t="str">
         <f>IF(_liuan_day_hour!F2="","",_liuan_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I7" s="16" t="str">
+      <c r="I7" s="8" t="str">
         <f>IF(_liuan_day_hour!G2="","",_liuan_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J7" s="16" t="str">
+      <c r="J7" s="8" t="str">
         <f>IF(_liuan_day_hour!H2="","",_liuan_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K7" s="16" t="str">
+      <c r="K7" s="8" t="str">
         <f>IF(_liuan_day_hour!I2="","",_liuan_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L7" s="16" t="str">
+      <c r="L7" s="8" t="str">
         <f>IF(_liuan_day_hour!J2="","",_liuan_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M7" s="16" t="str">
+      <c r="M7" s="8" t="str">
         <f>IF(_liuan_day_hour!K2="","",_liuan_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N7" s="16" t="str">
+      <c r="N7" s="8" t="str">
         <f>IF(_liuan_day_hour!L2="","",_liuan_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O7" s="16" t="str">
+      <c r="O7" s="8" t="str">
         <f>IF(_liuan_day_hour!M2="","",_liuan_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P7" s="16" t="str">
+      <c r="P7" s="8" t="str">
         <f>IF(_liuan_day_hour!N2="","",_liuan_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q7" s="16" t="str">
+      <c r="Q7" s="8" t="str">
         <f>IF(_liuan_day_hour!O2="","",_liuan_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R7" s="42" t="str">
+      <c r="R7" s="14" t="str">
         <f>IF(_liuan_day_hour!P2="","",_liuan_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S7" s="43" t="s">
+      <c r="S7" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="T7" s="44" t="s">
+      <c r="T7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="41"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="13"/>
     </row>
-    <row r="8" customFormat="1" spans="2:23">
-      <c r="B8" s="15">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="C8" s="16" t="str">
+    <row r="8" spans="1:23">
+      <c r="B8" s="7">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="C8" s="8" t="str">
         <f>IF(_liuan_day_hour!A3="","",_liuan_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D8" s="16" t="str">
+      <c r="D8" s="8" t="str">
         <f>IF(_liuan_day_hour!B3="","",_liuan_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E8" s="16" t="str">
+      <c r="E8" s="8" t="str">
         <f>IF(_liuan_day_hour!C3="","",_liuan_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F8" s="16" t="str">
+      <c r="F8" s="8" t="str">
         <f>IF(_liuan_day_hour!D3="","",_liuan_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G8" s="16" t="str">
+      <c r="G8" s="8" t="str">
         <f>IF(_liuan_day_hour!E3="","",_liuan_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H8" s="16" t="str">
+      <c r="H8" s="8" t="str">
         <f>IF(_liuan_day_hour!F3="","",_liuan_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I8" s="16" t="str">
+      <c r="I8" s="8" t="str">
         <f>IF(_liuan_day_hour!G3="","",_liuan_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J8" s="16" t="str">
+      <c r="J8" s="8" t="str">
         <f>IF(_liuan_day_hour!H3="","",_liuan_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K8" s="16" t="str">
+      <c r="K8" s="8" t="str">
         <f>IF(_liuan_day_hour!I3="","",_liuan_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L8" s="16" t="str">
+      <c r="L8" s="8" t="str">
         <f>IF(_liuan_day_hour!J3="","",_liuan_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M8" s="16" t="str">
+      <c r="M8" s="8" t="str">
         <f>IF(_liuan_day_hour!K3="","",_liuan_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N8" s="16" t="str">
+      <c r="N8" s="8" t="str">
         <f>IF(_liuan_day_hour!L3="","",_liuan_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O8" s="16" t="str">
+      <c r="O8" s="8" t="str">
         <f>IF(_liuan_day_hour!M3="","",_liuan_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P8" s="16" t="str">
+      <c r="P8" s="8" t="str">
         <f>IF(_liuan_day_hour!N3="","",_liuan_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q8" s="16" t="str">
+      <c r="Q8" s="8" t="str">
         <f>IF(_liuan_day_hour!O3="","",_liuan_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R8" s="42" t="str">
+      <c r="R8" s="14" t="str">
         <f>IF(_liuan_day_hour!P3="","",_liuan_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S8" s="43"/>
-      <c r="T8" s="44" t="s">
+      <c r="S8" s="44"/>
+      <c r="T8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="41"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="13"/>
     </row>
-    <row r="9" customFormat="1" spans="2:23">
-      <c r="B9" s="15">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="C9" s="16" t="str">
+    <row r="9" spans="1:23">
+      <c r="B9" s="7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C9" s="8" t="str">
         <f>IF(_liuan_day_hour!A4="","",_liuan_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D9" s="16" t="str">
+      <c r="D9" s="8" t="str">
         <f>IF(_liuan_day_hour!B4="","",_liuan_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E9" s="16" t="str">
+      <c r="E9" s="8" t="str">
         <f>IF(_liuan_day_hour!C4="","",_liuan_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F9" s="16" t="str">
+      <c r="F9" s="8" t="str">
         <f>IF(_liuan_day_hour!D4="","",_liuan_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G9" s="16" t="str">
+      <c r="G9" s="8" t="str">
         <f>IF(_liuan_day_hour!E4="","",_liuan_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H9" s="16" t="str">
+      <c r="H9" s="8" t="str">
         <f>IF(_liuan_day_hour!F4="","",_liuan_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I9" s="16" t="str">
+      <c r="I9" s="8" t="str">
         <f>IF(_liuan_day_hour!G4="","",_liuan_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J9" s="16" t="str">
+      <c r="J9" s="8" t="str">
         <f>IF(_liuan_day_hour!H4="","",_liuan_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K9" s="16" t="str">
+      <c r="K9" s="8" t="str">
         <f>IF(_liuan_day_hour!I4="","",_liuan_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L9" s="16" t="str">
+      <c r="L9" s="8" t="str">
         <f>IF(_liuan_day_hour!J4="","",_liuan_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M9" s="16" t="str">
+      <c r="M9" s="8" t="str">
         <f>IF(_liuan_day_hour!K4="","",_liuan_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N9" s="16" t="str">
+      <c r="N9" s="8" t="str">
         <f>IF(_liuan_day_hour!L4="","",_liuan_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O9" s="16" t="str">
+      <c r="O9" s="8" t="str">
         <f>IF(_liuan_day_hour!M4="","",_liuan_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P9" s="16" t="str">
+      <c r="P9" s="8" t="str">
         <f>IF(_liuan_day_hour!N4="","",_liuan_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q9" s="16" t="str">
+      <c r="Q9" s="8" t="str">
         <f>IF(_liuan_day_hour!O4="","",_liuan_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R9" s="42" t="str">
+      <c r="R9" s="14" t="str">
         <f>IF(_liuan_day_hour!P4="","",_liuan_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S9" s="43"/>
-      <c r="T9" s="44" t="s">
+      <c r="S9" s="44"/>
+      <c r="T9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="41"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="13"/>
     </row>
-    <row r="10" customFormat="1" ht="14.1" customHeight="1" spans="2:23">
-      <c r="B10" s="15">
+    <row r="10" spans="1:23" ht="14.1" customHeight="1">
+      <c r="B10" s="7">
         <v>0.125</v>
       </c>
-      <c r="C10" s="16" t="str">
+      <c r="C10" s="8" t="str">
         <f>IF(_liuan_day_hour!A5="","",_liuan_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D10" s="16" t="str">
+      <c r="D10" s="8" t="str">
         <f>IF(_liuan_day_hour!B5="","",_liuan_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E10" s="16" t="str">
+      <c r="E10" s="8" t="str">
         <f>IF(_liuan_day_hour!C5="","",_liuan_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F10" s="16" t="str">
+      <c r="F10" s="8" t="str">
         <f>IF(_liuan_day_hour!D5="","",_liuan_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G10" s="16" t="str">
+      <c r="G10" s="8" t="str">
         <f>IF(_liuan_day_hour!E5="","",_liuan_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H10" s="16" t="str">
+      <c r="H10" s="8" t="str">
         <f>IF(_liuan_day_hour!F5="","",_liuan_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I10" s="16" t="str">
+      <c r="I10" s="8" t="str">
         <f>IF(_liuan_day_hour!G5="","",_liuan_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J10" s="16" t="str">
+      <c r="J10" s="8" t="str">
         <f>IF(_liuan_day_hour!H5="","",_liuan_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K10" s="16" t="str">
+      <c r="K10" s="8" t="str">
         <f>IF(_liuan_day_hour!I5="","",_liuan_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L10" s="16" t="str">
+      <c r="L10" s="8" t="str">
         <f>IF(_liuan_day_hour!J5="","",_liuan_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M10" s="16" t="str">
+      <c r="M10" s="8" t="str">
         <f>IF(_liuan_day_hour!K5="","",_liuan_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N10" s="16" t="str">
+      <c r="N10" s="8" t="str">
         <f>IF(_liuan_day_hour!L5="","",_liuan_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O10" s="16" t="str">
+      <c r="O10" s="8" t="str">
         <f>IF(_liuan_day_hour!M5="","",_liuan_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P10" s="16" t="str">
+      <c r="P10" s="8" t="str">
         <f>IF(_liuan_day_hour!N5="","",_liuan_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q10" s="16" t="str">
+      <c r="Q10" s="8" t="str">
         <f>IF(_liuan_day_hour!O5="","",_liuan_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R10" s="42" t="str">
+      <c r="R10" s="14" t="str">
         <f>IF(_liuan_day_hour!P5="","",_liuan_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S10" s="43"/>
-      <c r="T10" s="44" t="s">
+      <c r="S10" s="44"/>
+      <c r="T10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="41"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="13"/>
     </row>
-    <row r="11" customFormat="1" spans="2:23">
-      <c r="B11" s="15">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="C11" s="16" t="str">
+    <row r="11" spans="1:23">
+      <c r="B11" s="7">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C11" s="8" t="str">
         <f>IF(_liuan_day_hour!A6="","",_liuan_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D11" s="16" t="str">
+      <c r="D11" s="8" t="str">
         <f>IF(_liuan_day_hour!B6="","",_liuan_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E11" s="16" t="str">
+      <c r="E11" s="8" t="str">
         <f>IF(_liuan_day_hour!C6="","",_liuan_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F11" s="16" t="str">
+      <c r="F11" s="8" t="str">
         <f>IF(_liuan_day_hour!D6="","",_liuan_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G11" s="16" t="str">
+      <c r="G11" s="8" t="str">
         <f>IF(_liuan_day_hour!E6="","",_liuan_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H11" s="16" t="str">
+      <c r="H11" s="8" t="str">
         <f>IF(_liuan_day_hour!F6="","",_liuan_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="8" t="str">
         <f>IF(_liuan_day_hour!G6="","",_liuan_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J11" s="16" t="str">
+      <c r="J11" s="8" t="str">
         <f>IF(_liuan_day_hour!H6="","",_liuan_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K11" s="16" t="str">
+      <c r="K11" s="8" t="str">
         <f>IF(_liuan_day_hour!I6="","",_liuan_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L11" s="16" t="str">
+      <c r="L11" s="8" t="str">
         <f>IF(_liuan_day_hour!J6="","",_liuan_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M11" s="16" t="str">
+      <c r="M11" s="8" t="str">
         <f>IF(_liuan_day_hour!K6="","",_liuan_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N11" s="16" t="str">
+      <c r="N11" s="8" t="str">
         <f>IF(_liuan_day_hour!L6="","",_liuan_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O11" s="16" t="str">
+      <c r="O11" s="8" t="str">
         <f>IF(_liuan_day_hour!M6="","",_liuan_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P11" s="16" t="str">
+      <c r="P11" s="8" t="str">
         <f>IF(_liuan_day_hour!N6="","",_liuan_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q11" s="16" t="str">
+      <c r="Q11" s="8" t="str">
         <f>IF(_liuan_day_hour!O6="","",_liuan_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R11" s="42" t="str">
+      <c r="R11" s="14" t="str">
         <f>IF(_liuan_day_hour!P6="","",_liuan_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S11" s="43" t="s">
+      <c r="S11" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="T11" s="45" t="s">
+      <c r="T11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="41"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="13"/>
     </row>
-    <row r="12" customFormat="1" spans="2:23">
-      <c r="B12" s="15">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="C12" s="16" t="str">
+    <row r="12" spans="1:23">
+      <c r="B12" s="7">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="C12" s="8" t="str">
         <f>IF(_liuan_day_hour!A7="","",_liuan_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D12" s="16" t="str">
+      <c r="D12" s="8" t="str">
         <f>IF(_liuan_day_hour!B7="","",_liuan_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E12" s="16" t="str">
+      <c r="E12" s="8" t="str">
         <f>IF(_liuan_day_hour!C7="","",_liuan_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F12" s="16" t="str">
+      <c r="F12" s="8" t="str">
         <f>IF(_liuan_day_hour!D7="","",_liuan_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G12" s="16" t="str">
+      <c r="G12" s="8" t="str">
         <f>IF(_liuan_day_hour!E7="","",_liuan_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H12" s="16" t="str">
+      <c r="H12" s="8" t="str">
         <f>IF(_liuan_day_hour!F7="","",_liuan_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I12" s="16" t="str">
+      <c r="I12" s="8" t="str">
         <f>IF(_liuan_day_hour!G7="","",_liuan_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J12" s="16" t="str">
+      <c r="J12" s="8" t="str">
         <f>IF(_liuan_day_hour!H7="","",_liuan_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K12" s="16" t="str">
+      <c r="K12" s="8" t="str">
         <f>IF(_liuan_day_hour!I7="","",_liuan_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L12" s="16" t="str">
+      <c r="L12" s="8" t="str">
         <f>IF(_liuan_day_hour!J7="","",_liuan_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M12" s="16" t="str">
+      <c r="M12" s="8" t="str">
         <f>IF(_liuan_day_hour!K7="","",_liuan_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N12" s="16" t="str">
+      <c r="N12" s="8" t="str">
         <f>IF(_liuan_day_hour!L7="","",_liuan_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O12" s="16" t="str">
+      <c r="O12" s="8" t="str">
         <f>IF(_liuan_day_hour!M7="","",_liuan_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P12" s="16" t="str">
+      <c r="P12" s="8" t="str">
         <f>IF(_liuan_day_hour!N7="","",_liuan_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q12" s="16" t="str">
+      <c r="Q12" s="8" t="str">
         <f>IF(_liuan_day_hour!O7="","",_liuan_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R12" s="42" t="str">
+      <c r="R12" s="14" t="str">
         <f>IF(_liuan_day_hour!P7="","",_liuan_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S12" s="43"/>
-      <c r="T12" s="44" t="s">
+      <c r="S12" s="44"/>
+      <c r="T12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="41"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="13"/>
     </row>
-    <row r="13" customFormat="1" ht="14.1" customHeight="1" spans="2:23">
-      <c r="B13" s="15">
+    <row r="13" spans="1:23" ht="14.1" customHeight="1">
+      <c r="B13" s="7">
         <v>0.25</v>
       </c>
-      <c r="C13" s="16" t="str">
+      <c r="C13" s="8" t="str">
         <f>IF(_liuan_day_hour!A8="","",_liuan_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D13" s="16" t="str">
+      <c r="D13" s="8" t="str">
         <f>IF(_liuan_day_hour!B8="","",_liuan_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E13" s="16" t="str">
+      <c r="E13" s="8" t="str">
         <f>IF(_liuan_day_hour!C8="","",_liuan_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F13" s="16" t="str">
+      <c r="F13" s="8" t="str">
         <f>IF(_liuan_day_hour!D8="","",_liuan_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G13" s="16" t="str">
+      <c r="G13" s="8" t="str">
         <f>IF(_liuan_day_hour!E8="","",_liuan_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H13" s="16" t="str">
+      <c r="H13" s="8" t="str">
         <f>IF(_liuan_day_hour!F8="","",_liuan_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I13" s="16" t="str">
+      <c r="I13" s="8" t="str">
         <f>IF(_liuan_day_hour!G8="","",_liuan_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J13" s="16" t="str">
+      <c r="J13" s="8" t="str">
         <f>IF(_liuan_day_hour!H8="","",_liuan_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K13" s="16" t="str">
+      <c r="K13" s="8" t="str">
         <f>IF(_liuan_day_hour!I8="","",_liuan_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L13" s="16" t="str">
+      <c r="L13" s="8" t="str">
         <f>IF(_liuan_day_hour!J8="","",_liuan_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M13" s="16" t="str">
+      <c r="M13" s="8" t="str">
         <f>IF(_liuan_day_hour!K8="","",_liuan_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N13" s="16" t="str">
+      <c r="N13" s="8" t="str">
         <f>IF(_liuan_day_hour!L8="","",_liuan_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O13" s="16" t="str">
+      <c r="O13" s="8" t="str">
         <f>IF(_liuan_day_hour!M8="","",_liuan_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P13" s="16" t="str">
+      <c r="P13" s="8" t="str">
         <f>IF(_liuan_day_hour!N8="","",_liuan_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q13" s="16" t="str">
+      <c r="Q13" s="8" t="str">
         <f>IF(_liuan_day_hour!O8="","",_liuan_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R13" s="42" t="str">
+      <c r="R13" s="14" t="str">
         <f>IF(_liuan_day_hour!P8="","",_liuan_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S13" s="46" t="s">
+      <c r="S13" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="T13" s="45"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="41"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="13"/>
     </row>
-    <row r="14" customFormat="1" spans="2:23">
-      <c r="B14" s="15">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="C14" s="16" t="str">
+    <row r="14" spans="1:23">
+      <c r="B14" s="7">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C14" s="8" t="str">
         <f>IF(_liuan_day_hour!A9="","",_liuan_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D14" s="16" t="str">
+      <c r="D14" s="8" t="str">
         <f>IF(_liuan_day_hour!B9="","",_liuan_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E14" s="16" t="str">
+      <c r="E14" s="8" t="str">
         <f>IF(_liuan_day_hour!C9="","",_liuan_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F14" s="16" t="str">
+      <c r="F14" s="8" t="str">
         <f>IF(_liuan_day_hour!D9="","",_liuan_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G14" s="16" t="str">
+      <c r="G14" s="8" t="str">
         <f>IF(_liuan_day_hour!E9="","",_liuan_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H14" s="16" t="str">
+      <c r="H14" s="8" t="str">
         <f>IF(_liuan_day_hour!F9="","",_liuan_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I14" s="16" t="str">
+      <c r="I14" s="8" t="str">
         <f>IF(_liuan_day_hour!G9="","",_liuan_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J14" s="16" t="str">
+      <c r="J14" s="8" t="str">
         <f>IF(_liuan_day_hour!H9="","",_liuan_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K14" s="16" t="str">
+      <c r="K14" s="8" t="str">
         <f>IF(_liuan_day_hour!I9="","",_liuan_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L14" s="16" t="str">
+      <c r="L14" s="8" t="str">
         <f>IF(_liuan_day_hour!J9="","",_liuan_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M14" s="16" t="str">
+      <c r="M14" s="8" t="str">
         <f>IF(_liuan_day_hour!K9="","",_liuan_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N14" s="16" t="str">
+      <c r="N14" s="8" t="str">
         <f>IF(_liuan_day_hour!L9="","",_liuan_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O14" s="16" t="str">
+      <c r="O14" s="8" t="str">
         <f>IF(_liuan_day_hour!M9="","",_liuan_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P14" s="16" t="str">
+      <c r="P14" s="8" t="str">
         <f>IF(_liuan_day_hour!N9="","",_liuan_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q14" s="16" t="str">
+      <c r="Q14" s="8" t="str">
         <f>IF(_liuan_day_hour!O9="","",_liuan_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R14" s="42" t="str">
+      <c r="R14" s="14" t="str">
         <f>IF(_liuan_day_hour!P9="","",_liuan_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S14" s="47"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="49"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="52"/>
     </row>
-    <row r="15" customFormat="1" ht="14.1" customHeight="1" spans="2:23">
-      <c r="B15" s="15">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="C15" s="16" t="str">
+    <row r="15" spans="1:23" ht="14.1" customHeight="1">
+      <c r="B15" s="7">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C15" s="8" t="str">
         <f>IF(_liuan_day_hour!A10="","",_liuan_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D15" s="16" t="str">
+      <c r="D15" s="8" t="str">
         <f>IF(_liuan_day_hour!B10="","",_liuan_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E15" s="16" t="str">
+      <c r="E15" s="8" t="str">
         <f>IF(_liuan_day_hour!C10="","",_liuan_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F15" s="16" t="str">
+      <c r="F15" s="8" t="str">
         <f>IF(_liuan_day_hour!D10="","",_liuan_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G15" s="16" t="str">
+      <c r="G15" s="8" t="str">
         <f>IF(_liuan_day_hour!E10="","",_liuan_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H15" s="16" t="str">
+      <c r="H15" s="8" t="str">
         <f>IF(_liuan_day_hour!F10="","",_liuan_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I15" s="16" t="str">
+      <c r="I15" s="8" t="str">
         <f>IF(_liuan_day_hour!G10="","",_liuan_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J15" s="16" t="str">
+      <c r="J15" s="8" t="str">
         <f>IF(_liuan_day_hour!H10="","",_liuan_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K15" s="16" t="str">
+      <c r="K15" s="8" t="str">
         <f>IF(_liuan_day_hour!I10="","",_liuan_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L15" s="16" t="str">
+      <c r="L15" s="8" t="str">
         <f>IF(_liuan_day_hour!J10="","",_liuan_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M15" s="16" t="str">
+      <c r="M15" s="8" t="str">
         <f>IF(_liuan_day_hour!K10="","",_liuan_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N15" s="16" t="str">
+      <c r="N15" s="8" t="str">
         <f>IF(_liuan_day_hour!L10="","",_liuan_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O15" s="16" t="str">
+      <c r="O15" s="8" t="str">
         <f>IF(_liuan_day_hour!M10="","",_liuan_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P15" s="16" t="str">
+      <c r="P15" s="8" t="str">
         <f>IF(_liuan_day_hour!N10="","",_liuan_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q15" s="16" t="str">
+      <c r="Q15" s="8" t="str">
         <f>IF(_liuan_day_hour!O10="","",_liuan_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R15" s="42" t="str">
+      <c r="R15" s="14" t="str">
         <f>IF(_liuan_day_hour!P10="","",_liuan_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S15" s="50"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="52"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="55"/>
     </row>
-    <row r="16" customFormat="1" spans="2:23">
-      <c r="B16" s="15">
+    <row r="16" spans="1:23">
+      <c r="B16" s="7">
         <v>0.375</v>
       </c>
-      <c r="C16" s="16" t="str">
+      <c r="C16" s="8" t="str">
         <f>IF(_liuan_day_hour!A11="","",_liuan_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D16" s="16" t="str">
+      <c r="D16" s="8" t="str">
         <f>IF(_liuan_day_hour!B11="","",_liuan_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E16" s="16" t="str">
+      <c r="E16" s="8" t="str">
         <f>IF(_liuan_day_hour!C11="","",_liuan_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F16" s="16" t="str">
+      <c r="F16" s="8" t="str">
         <f>IF(_liuan_day_hour!D11="","",_liuan_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G16" s="16" t="str">
+      <c r="G16" s="8" t="str">
         <f>IF(_liuan_day_hour!E11="","",_liuan_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H16" s="16" t="str">
+      <c r="H16" s="8" t="str">
         <f>IF(_liuan_day_hour!F11="","",_liuan_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I16" s="16" t="str">
+      <c r="I16" s="8" t="str">
         <f>IF(_liuan_day_hour!G11="","",_liuan_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J16" s="16" t="str">
+      <c r="J16" s="8" t="str">
         <f>IF(_liuan_day_hour!H11="","",_liuan_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K16" s="16" t="str">
+      <c r="K16" s="8" t="str">
         <f>IF(_liuan_day_hour!I11="","",_liuan_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L16" s="16" t="str">
+      <c r="L16" s="8" t="str">
         <f>IF(_liuan_day_hour!J11="","",_liuan_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M16" s="16" t="str">
+      <c r="M16" s="8" t="str">
         <f>IF(_liuan_day_hour!K11="","",_liuan_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N16" s="16" t="str">
+      <c r="N16" s="8" t="str">
         <f>IF(_liuan_day_hour!L11="","",_liuan_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O16" s="16" t="str">
+      <c r="O16" s="8" t="str">
         <f>IF(_liuan_day_hour!M11="","",_liuan_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P16" s="16" t="str">
+      <c r="P16" s="8" t="str">
         <f>IF(_liuan_day_hour!N11="","",_liuan_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q16" s="16" t="str">
+      <c r="Q16" s="8" t="str">
         <f>IF(_liuan_day_hour!O11="","",_liuan_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R16" s="42" t="str">
+      <c r="R16" s="14" t="str">
         <f>IF(_liuan_day_hour!P11="","",_liuan_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S16" s="50"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="52"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="55"/>
     </row>
-    <row r="17" customFormat="1" spans="2:23">
-      <c r="B17" s="15">
-        <v>0.416666666666666</v>
-      </c>
-      <c r="C17" s="16" t="str">
+    <row r="17" spans="2:23">
+      <c r="B17" s="7">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="C17" s="8" t="str">
         <f>IF(_liuan_day_hour!A12="","",_liuan_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D17" s="16" t="str">
+      <c r="D17" s="8" t="str">
         <f>IF(_liuan_day_hour!B12="","",_liuan_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E17" s="16" t="str">
+      <c r="E17" s="8" t="str">
         <f>IF(_liuan_day_hour!C12="","",_liuan_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F17" s="16" t="str">
+      <c r="F17" s="8" t="str">
         <f>IF(_liuan_day_hour!D12="","",_liuan_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G17" s="16" t="str">
+      <c r="G17" s="8" t="str">
         <f>IF(_liuan_day_hour!E12="","",_liuan_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H17" s="16" t="str">
+      <c r="H17" s="8" t="str">
         <f>IF(_liuan_day_hour!F12="","",_liuan_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I17" s="16" t="str">
+      <c r="I17" s="8" t="str">
         <f>IF(_liuan_day_hour!G12="","",_liuan_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J17" s="16" t="str">
+      <c r="J17" s="8" t="str">
         <f>IF(_liuan_day_hour!H12="","",_liuan_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K17" s="16" t="str">
+      <c r="K17" s="8" t="str">
         <f>IF(_liuan_day_hour!I12="","",_liuan_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L17" s="16" t="str">
+      <c r="L17" s="8" t="str">
         <f>IF(_liuan_day_hour!J12="","",_liuan_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M17" s="16" t="str">
+      <c r="M17" s="8" t="str">
         <f>IF(_liuan_day_hour!K12="","",_liuan_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N17" s="16" t="str">
+      <c r="N17" s="8" t="str">
         <f>IF(_liuan_day_hour!L12="","",_liuan_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O17" s="16" t="str">
+      <c r="O17" s="8" t="str">
         <f>IF(_liuan_day_hour!M12="","",_liuan_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P17" s="16" t="str">
+      <c r="P17" s="8" t="str">
         <f>IF(_liuan_day_hour!N12="","",_liuan_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q17" s="16" t="str">
+      <c r="Q17" s="8" t="str">
         <f>IF(_liuan_day_hour!O12="","",_liuan_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R17" s="42" t="str">
+      <c r="R17" s="14" t="str">
         <f>IF(_liuan_day_hour!P12="","",_liuan_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S17" s="50"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="52"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="55"/>
     </row>
-    <row r="18" customFormat="1" ht="14.1" customHeight="1" spans="2:23">
-      <c r="B18" s="15">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="C18" s="16" t="str">
+    <row r="18" spans="2:23" ht="14.1" customHeight="1">
+      <c r="B18" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C18" s="8" t="str">
         <f>IF(_liuan_day_hour!A13="","",_liuan_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D18" s="16" t="str">
+      <c r="D18" s="8" t="str">
         <f>IF(_liuan_day_hour!B13="","",_liuan_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E18" s="16" t="str">
+      <c r="E18" s="8" t="str">
         <f>IF(_liuan_day_hour!C13="","",_liuan_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F18" s="16" t="str">
+      <c r="F18" s="8" t="str">
         <f>IF(_liuan_day_hour!D13="","",_liuan_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G18" s="16" t="str">
+      <c r="G18" s="8" t="str">
         <f>IF(_liuan_day_hour!E13="","",_liuan_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H18" s="16" t="str">
+      <c r="H18" s="8" t="str">
         <f>IF(_liuan_day_hour!F13="","",_liuan_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I18" s="16" t="str">
+      <c r="I18" s="8" t="str">
         <f>IF(_liuan_day_hour!G13="","",_liuan_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J18" s="16" t="str">
+      <c r="J18" s="8" t="str">
         <f>IF(_liuan_day_hour!H13="","",_liuan_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K18" s="16" t="str">
+      <c r="K18" s="8" t="str">
         <f>IF(_liuan_day_hour!I13="","",_liuan_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L18" s="16" t="str">
+      <c r="L18" s="8" t="str">
         <f>IF(_liuan_day_hour!J13="","",_liuan_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M18" s="16" t="str">
+      <c r="M18" s="8" t="str">
         <f>IF(_liuan_day_hour!K13="","",_liuan_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N18" s="16" t="str">
+      <c r="N18" s="8" t="str">
         <f>IF(_liuan_day_hour!L13="","",_liuan_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O18" s="16" t="str">
+      <c r="O18" s="8" t="str">
         <f>IF(_liuan_day_hour!M13="","",_liuan_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P18" s="16" t="str">
+      <c r="P18" s="8" t="str">
         <f>IF(_liuan_day_hour!N13="","",_liuan_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q18" s="16" t="str">
+      <c r="Q18" s="8" t="str">
         <f>IF(_liuan_day_hour!O13="","",_liuan_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R18" s="42" t="str">
+      <c r="R18" s="14" t="str">
         <f>IF(_liuan_day_hour!P13="","",_liuan_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S18" s="50"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="52"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="55"/>
     </row>
-    <row r="19" customFormat="1" ht="14.1" customHeight="1" spans="2:23">
-      <c r="B19" s="15">
+    <row r="19" spans="2:23" ht="14.1" customHeight="1">
+      <c r="B19" s="7">
         <v>0.5</v>
       </c>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="8" t="str">
         <f>IF(_liuan_day_hour!A14="","",_liuan_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D19" s="16" t="str">
+      <c r="D19" s="8" t="str">
         <f>IF(_liuan_day_hour!B14="","",_liuan_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E19" s="16" t="str">
+      <c r="E19" s="8" t="str">
         <f>IF(_liuan_day_hour!C14="","",_liuan_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F19" s="16" t="str">
+      <c r="F19" s="8" t="str">
         <f>IF(_liuan_day_hour!D14="","",_liuan_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G19" s="16" t="str">
+      <c r="G19" s="8" t="str">
         <f>IF(_liuan_day_hour!E14="","",_liuan_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H19" s="16" t="str">
+      <c r="H19" s="8" t="str">
         <f>IF(_liuan_day_hour!F14="","",_liuan_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="8" t="str">
         <f>IF(_liuan_day_hour!G14="","",_liuan_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J19" s="16" t="str">
+      <c r="J19" s="8" t="str">
         <f>IF(_liuan_day_hour!H14="","",_liuan_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K19" s="16" t="str">
+      <c r="K19" s="8" t="str">
         <f>IF(_liuan_day_hour!I14="","",_liuan_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L19" s="16" t="str">
+      <c r="L19" s="8" t="str">
         <f>IF(_liuan_day_hour!J14="","",_liuan_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M19" s="16" t="str">
+      <c r="M19" s="8" t="str">
         <f>IF(_liuan_day_hour!K14="","",_liuan_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N19" s="16" t="str">
+      <c r="N19" s="8" t="str">
         <f>IF(_liuan_day_hour!L14="","",_liuan_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O19" s="16" t="str">
+      <c r="O19" s="8" t="str">
         <f>IF(_liuan_day_hour!M14="","",_liuan_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P19" s="16" t="str">
+      <c r="P19" s="8" t="str">
         <f>IF(_liuan_day_hour!N14="","",_liuan_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q19" s="16" t="str">
+      <c r="Q19" s="8" t="str">
         <f>IF(_liuan_day_hour!O14="","",_liuan_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R19" s="42" t="str">
+      <c r="R19" s="14" t="str">
         <f>IF(_liuan_day_hour!P14="","",_liuan_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S19" s="50"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="52"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="55"/>
     </row>
-    <row r="20" customFormat="1" ht="14.1" customHeight="1" spans="2:23">
-      <c r="B20" s="15">
-        <v>0.541666666666666</v>
-      </c>
-      <c r="C20" s="16" t="str">
+    <row r="20" spans="2:23" ht="14.1" customHeight="1">
+      <c r="B20" s="7">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="C20" s="8" t="str">
         <f>IF(_liuan_day_hour!A15="","",_liuan_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D20" s="16" t="str">
+      <c r="D20" s="8" t="str">
         <f>IF(_liuan_day_hour!B15="","",_liuan_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E20" s="16" t="str">
+      <c r="E20" s="8" t="str">
         <f>IF(_liuan_day_hour!C15="","",_liuan_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F20" s="16" t="str">
+      <c r="F20" s="8" t="str">
         <f>IF(_liuan_day_hour!D15="","",_liuan_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G20" s="16" t="str">
+      <c r="G20" s="8" t="str">
         <f>IF(_liuan_day_hour!E15="","",_liuan_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H20" s="16" t="str">
+      <c r="H20" s="8" t="str">
         <f>IF(_liuan_day_hour!F15="","",_liuan_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I20" s="16" t="str">
+      <c r="I20" s="8" t="str">
         <f>IF(_liuan_day_hour!G15="","",_liuan_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J20" s="16" t="str">
+      <c r="J20" s="8" t="str">
         <f>IF(_liuan_day_hour!H15="","",_liuan_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K20" s="16" t="str">
+      <c r="K20" s="8" t="str">
         <f>IF(_liuan_day_hour!I15="","",_liuan_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L20" s="16" t="str">
+      <c r="L20" s="8" t="str">
         <f>IF(_liuan_day_hour!J15="","",_liuan_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M20" s="16" t="str">
+      <c r="M20" s="8" t="str">
         <f>IF(_liuan_day_hour!K15="","",_liuan_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N20" s="16" t="str">
+      <c r="N20" s="8" t="str">
         <f>IF(_liuan_day_hour!L15="","",_liuan_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O20" s="16" t="str">
+      <c r="O20" s="8" t="str">
         <f>IF(_liuan_day_hour!M15="","",_liuan_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P20" s="16" t="str">
+      <c r="P20" s="8" t="str">
         <f>IF(_liuan_day_hour!N15="","",_liuan_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q20" s="16" t="str">
+      <c r="Q20" s="8" t="str">
         <f>IF(_liuan_day_hour!O15="","",_liuan_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R20" s="42" t="str">
+      <c r="R20" s="14" t="str">
         <f>IF(_liuan_day_hour!P15="","",_liuan_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S20" s="50"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="52"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="55"/>
     </row>
-    <row r="21" customFormat="1" ht="14.1" customHeight="1" spans="2:23">
-      <c r="B21" s="15">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="C21" s="16" t="str">
+    <row r="21" spans="2:23" ht="14.1" customHeight="1">
+      <c r="B21" s="7">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C21" s="8" t="str">
         <f>IF(_liuan_day_hour!A16="","",_liuan_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D21" s="16" t="str">
+      <c r="D21" s="8" t="str">
         <f>IF(_liuan_day_hour!B16="","",_liuan_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E21" s="16" t="str">
+      <c r="E21" s="8" t="str">
         <f>IF(_liuan_day_hour!C16="","",_liuan_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F21" s="16" t="str">
+      <c r="F21" s="8" t="str">
         <f>IF(_liuan_day_hour!D16="","",_liuan_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G21" s="16" t="str">
+      <c r="G21" s="8" t="str">
         <f>IF(_liuan_day_hour!E16="","",_liuan_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H21" s="16" t="str">
+      <c r="H21" s="8" t="str">
         <f>IF(_liuan_day_hour!F16="","",_liuan_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I21" s="16" t="str">
+      <c r="I21" s="8" t="str">
         <f>IF(_liuan_day_hour!G16="","",_liuan_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J21" s="16" t="str">
+      <c r="J21" s="8" t="str">
         <f>IF(_liuan_day_hour!H16="","",_liuan_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K21" s="16" t="str">
+      <c r="K21" s="8" t="str">
         <f>IF(_liuan_day_hour!I16="","",_liuan_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L21" s="16" t="str">
+      <c r="L21" s="8" t="str">
         <f>IF(_liuan_day_hour!J16="","",_liuan_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M21" s="16" t="str">
+      <c r="M21" s="8" t="str">
         <f>IF(_liuan_day_hour!K16="","",_liuan_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N21" s="16" t="str">
+      <c r="N21" s="8" t="str">
         <f>IF(_liuan_day_hour!L16="","",_liuan_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O21" s="16" t="str">
+      <c r="O21" s="8" t="str">
         <f>IF(_liuan_day_hour!M16="","",_liuan_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P21" s="16" t="str">
+      <c r="P21" s="8" t="str">
         <f>IF(_liuan_day_hour!N16="","",_liuan_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q21" s="16" t="str">
+      <c r="Q21" s="8" t="str">
         <f>IF(_liuan_day_hour!O16="","",_liuan_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R21" s="42" t="str">
+      <c r="R21" s="14" t="str">
         <f>IF(_liuan_day_hour!P16="","",_liuan_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S21" s="50"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="52"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="55"/>
     </row>
-    <row r="22" customFormat="1" spans="2:23">
-      <c r="B22" s="15">
+    <row r="22" spans="2:23">
+      <c r="B22" s="7">
         <v>0.625</v>
       </c>
-      <c r="C22" s="16" t="str">
+      <c r="C22" s="8" t="str">
         <f>IF(_liuan_day_hour!A17="","",_liuan_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D22" s="16" t="str">
+      <c r="D22" s="8" t="str">
         <f>IF(_liuan_day_hour!B17="","",_liuan_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E22" s="16" t="str">
+      <c r="E22" s="8" t="str">
         <f>IF(_liuan_day_hour!C17="","",_liuan_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F22" s="16" t="str">
+      <c r="F22" s="8" t="str">
         <f>IF(_liuan_day_hour!D17="","",_liuan_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G22" s="16" t="str">
+      <c r="G22" s="8" t="str">
         <f>IF(_liuan_day_hour!E17="","",_liuan_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H22" s="16" t="str">
+      <c r="H22" s="8" t="str">
         <f>IF(_liuan_day_hour!F17="","",_liuan_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I22" s="16" t="str">
+      <c r="I22" s="8" t="str">
         <f>IF(_liuan_day_hour!G17="","",_liuan_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J22" s="16" t="str">
+      <c r="J22" s="8" t="str">
         <f>IF(_liuan_day_hour!H17="","",_liuan_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K22" s="16" t="str">
+      <c r="K22" s="8" t="str">
         <f>IF(_liuan_day_hour!I17="","",_liuan_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L22" s="16" t="str">
+      <c r="L22" s="8" t="str">
         <f>IF(_liuan_day_hour!J17="","",_liuan_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M22" s="16" t="str">
+      <c r="M22" s="8" t="str">
         <f>IF(_liuan_day_hour!K17="","",_liuan_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N22" s="16" t="str">
+      <c r="N22" s="8" t="str">
         <f>IF(_liuan_day_hour!L17="","",_liuan_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O22" s="16" t="str">
+      <c r="O22" s="8" t="str">
         <f>IF(_liuan_day_hour!M17="","",_liuan_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P22" s="16" t="str">
+      <c r="P22" s="8" t="str">
         <f>IF(_liuan_day_hour!N17="","",_liuan_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q22" s="16" t="str">
+      <c r="Q22" s="8" t="str">
         <f>IF(_liuan_day_hour!O17="","",_liuan_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R22" s="42" t="str">
+      <c r="R22" s="14" t="str">
         <f>IF(_liuan_day_hour!P17="","",_liuan_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S22" s="50"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="52"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="55"/>
     </row>
-    <row r="23" customFormat="1" spans="2:23">
-      <c r="B23" s="15">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C23" s="16" t="str">
+    <row r="23" spans="2:23">
+      <c r="B23" s="7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C23" s="8" t="str">
         <f>IF(_liuan_day_hour!A18="","",_liuan_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D23" s="16" t="str">
+      <c r="D23" s="8" t="str">
         <f>IF(_liuan_day_hour!B18="","",_liuan_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E23" s="16" t="str">
+      <c r="E23" s="8" t="str">
         <f>IF(_liuan_day_hour!C18="","",_liuan_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F23" s="16" t="str">
+      <c r="F23" s="8" t="str">
         <f>IF(_liuan_day_hour!D18="","",_liuan_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G23" s="16" t="str">
+      <c r="G23" s="8" t="str">
         <f>IF(_liuan_day_hour!E18="","",_liuan_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H23" s="16" t="str">
+      <c r="H23" s="8" t="str">
         <f>IF(_liuan_day_hour!F18="","",_liuan_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I23" s="16" t="str">
+      <c r="I23" s="8" t="str">
         <f>IF(_liuan_day_hour!G18="","",_liuan_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J23" s="16" t="str">
+      <c r="J23" s="8" t="str">
         <f>IF(_liuan_day_hour!H18="","",_liuan_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K23" s="16" t="str">
+      <c r="K23" s="8" t="str">
         <f>IF(_liuan_day_hour!I18="","",_liuan_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L23" s="16" t="str">
+      <c r="L23" s="8" t="str">
         <f>IF(_liuan_day_hour!J18="","",_liuan_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M23" s="16" t="str">
+      <c r="M23" s="8" t="str">
         <f>IF(_liuan_day_hour!K18="","",_liuan_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N23" s="16" t="str">
+      <c r="N23" s="8" t="str">
         <f>IF(_liuan_day_hour!L18="","",_liuan_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O23" s="16" t="str">
+      <c r="O23" s="8" t="str">
         <f>IF(_liuan_day_hour!M18="","",_liuan_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P23" s="16" t="str">
+      <c r="P23" s="8" t="str">
         <f>IF(_liuan_day_hour!N18="","",_liuan_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q23" s="16" t="str">
+      <c r="Q23" s="8" t="str">
         <f>IF(_liuan_day_hour!O18="","",_liuan_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R23" s="42" t="str">
+      <c r="R23" s="14" t="str">
         <f>IF(_liuan_day_hour!P18="","",_liuan_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S23" s="50"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="52"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="55"/>
     </row>
-    <row r="24" customFormat="1" spans="2:23">
-      <c r="B24" s="15">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C24" s="16" t="str">
+    <row r="24" spans="2:23">
+      <c r="B24" s="7">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C24" s="8" t="str">
         <f>IF(_liuan_day_hour!A19="","",_liuan_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D24" s="16" t="str">
+      <c r="D24" s="8" t="str">
         <f>IF(_liuan_day_hour!B19="","",_liuan_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E24" s="16" t="str">
+      <c r="E24" s="8" t="str">
         <f>IF(_liuan_day_hour!C19="","",_liuan_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F24" s="16" t="str">
+      <c r="F24" s="8" t="str">
         <f>IF(_liuan_day_hour!D19="","",_liuan_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G24" s="16" t="str">
+      <c r="G24" s="8" t="str">
         <f>IF(_liuan_day_hour!E19="","",_liuan_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H24" s="16" t="str">
+      <c r="H24" s="8" t="str">
         <f>IF(_liuan_day_hour!F19="","",_liuan_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I24" s="16" t="str">
+      <c r="I24" s="8" t="str">
         <f>IF(_liuan_day_hour!G19="","",_liuan_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J24" s="16" t="str">
+      <c r="J24" s="8" t="str">
         <f>IF(_liuan_day_hour!H19="","",_liuan_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K24" s="16" t="str">
+      <c r="K24" s="8" t="str">
         <f>IF(_liuan_day_hour!I19="","",_liuan_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L24" s="16" t="str">
+      <c r="L24" s="8" t="str">
         <f>IF(_liuan_day_hour!J19="","",_liuan_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M24" s="16" t="str">
+      <c r="M24" s="8" t="str">
         <f>IF(_liuan_day_hour!K19="","",_liuan_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N24" s="16" t="str">
+      <c r="N24" s="8" t="str">
         <f>IF(_liuan_day_hour!L19="","",_liuan_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O24" s="16" t="str">
+      <c r="O24" s="8" t="str">
         <f>IF(_liuan_day_hour!M19="","",_liuan_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P24" s="16" t="str">
+      <c r="P24" s="8" t="str">
         <f>IF(_liuan_day_hour!N19="","",_liuan_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q24" s="16" t="str">
+      <c r="Q24" s="8" t="str">
         <f>IF(_liuan_day_hour!O19="","",_liuan_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R24" s="42" t="str">
+      <c r="R24" s="14" t="str">
         <f>IF(_liuan_day_hour!P19="","",_liuan_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S24" s="50"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="52"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="55"/>
     </row>
-    <row r="25" customFormat="1" spans="2:23">
-      <c r="B25" s="15">
+    <row r="25" spans="2:23">
+      <c r="B25" s="7">
         <v>0.75</v>
       </c>
-      <c r="C25" s="16" t="str">
+      <c r="C25" s="8" t="str">
         <f>IF(_liuan_day_hour!A20="","",_liuan_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D25" s="16" t="str">
+      <c r="D25" s="8" t="str">
         <f>IF(_liuan_day_hour!B20="","",_liuan_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E25" s="16" t="str">
+      <c r="E25" s="8" t="str">
         <f>IF(_liuan_day_hour!C20="","",_liuan_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F25" s="16" t="str">
+      <c r="F25" s="8" t="str">
         <f>IF(_liuan_day_hour!D20="","",_liuan_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G25" s="16" t="str">
+      <c r="G25" s="8" t="str">
         <f>IF(_liuan_day_hour!E20="","",_liuan_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H25" s="16" t="str">
+      <c r="H25" s="8" t="str">
         <f>IF(_liuan_day_hour!F20="","",_liuan_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I25" s="16" t="str">
+      <c r="I25" s="8" t="str">
         <f>IF(_liuan_day_hour!G20="","",_liuan_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J25" s="16" t="str">
+      <c r="J25" s="8" t="str">
         <f>IF(_liuan_day_hour!H20="","",_liuan_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K25" s="16" t="str">
+      <c r="K25" s="8" t="str">
         <f>IF(_liuan_day_hour!I20="","",_liuan_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L25" s="16" t="str">
+      <c r="L25" s="8" t="str">
         <f>IF(_liuan_day_hour!J20="","",_liuan_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M25" s="16" t="str">
+      <c r="M25" s="8" t="str">
         <f>IF(_liuan_day_hour!K20="","",_liuan_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N25" s="16" t="str">
+      <c r="N25" s="8" t="str">
         <f>IF(_liuan_day_hour!L20="","",_liuan_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O25" s="16" t="str">
+      <c r="O25" s="8" t="str">
         <f>IF(_liuan_day_hour!M20="","",_liuan_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P25" s="16" t="str">
+      <c r="P25" s="8" t="str">
         <f>IF(_liuan_day_hour!N20="","",_liuan_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q25" s="16" t="str">
+      <c r="Q25" s="8" t="str">
         <f>IF(_liuan_day_hour!O20="","",_liuan_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R25" s="42" t="str">
+      <c r="R25" s="14" t="str">
         <f>IF(_liuan_day_hour!P20="","",_liuan_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S25" s="50"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="52"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="55"/>
     </row>
-    <row r="26" customFormat="1" spans="2:23">
-      <c r="B26" s="15">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C26" s="16" t="str">
+    <row r="26" spans="2:23">
+      <c r="B26" s="7">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C26" s="8" t="str">
         <f>IF(_liuan_day_hour!A21="","",_liuan_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D26" s="16" t="str">
+      <c r="D26" s="8" t="str">
         <f>IF(_liuan_day_hour!B21="","",_liuan_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E26" s="16" t="str">
+      <c r="E26" s="8" t="str">
         <f>IF(_liuan_day_hour!C21="","",_liuan_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F26" s="16" t="str">
+      <c r="F26" s="8" t="str">
         <f>IF(_liuan_day_hour!D21="","",_liuan_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G26" s="16" t="str">
+      <c r="G26" s="8" t="str">
         <f>IF(_liuan_day_hour!E21="","",_liuan_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H26" s="16" t="str">
+      <c r="H26" s="8" t="str">
         <f>IF(_liuan_day_hour!F21="","",_liuan_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I26" s="16" t="str">
+      <c r="I26" s="8" t="str">
         <f>IF(_liuan_day_hour!G21="","",_liuan_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J26" s="16" t="str">
+      <c r="J26" s="8" t="str">
         <f>IF(_liuan_day_hour!H21="","",_liuan_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K26" s="16" t="str">
+      <c r="K26" s="8" t="str">
         <f>IF(_liuan_day_hour!I21="","",_liuan_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L26" s="16" t="str">
+      <c r="L26" s="8" t="str">
         <f>IF(_liuan_day_hour!J21="","",_liuan_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M26" s="16" t="str">
+      <c r="M26" s="8" t="str">
         <f>IF(_liuan_day_hour!K21="","",_liuan_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N26" s="16" t="str">
+      <c r="N26" s="8" t="str">
         <f>IF(_liuan_day_hour!L21="","",_liuan_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O26" s="16" t="str">
+      <c r="O26" s="8" t="str">
         <f>IF(_liuan_day_hour!M21="","",_liuan_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P26" s="16" t="str">
+      <c r="P26" s="8" t="str">
         <f>IF(_liuan_day_hour!N21="","",_liuan_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q26" s="16" t="str">
+      <c r="Q26" s="8" t="str">
         <f>IF(_liuan_day_hour!O21="","",_liuan_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R26" s="42" t="str">
+      <c r="R26" s="14" t="str">
         <f>IF(_liuan_day_hour!P21="","",_liuan_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S26" s="50"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="52"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="55"/>
     </row>
-    <row r="27" customFormat="1" spans="2:23">
-      <c r="B27" s="15">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C27" s="16" t="str">
+    <row r="27" spans="2:23">
+      <c r="B27" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C27" s="8" t="str">
         <f>IF(_liuan_day_hour!A22="","",_liuan_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D27" s="16" t="str">
+      <c r="D27" s="8" t="str">
         <f>IF(_liuan_day_hour!B22="","",_liuan_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E27" s="16" t="str">
+      <c r="E27" s="8" t="str">
         <f>IF(_liuan_day_hour!C22="","",_liuan_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F27" s="16" t="str">
+      <c r="F27" s="8" t="str">
         <f>IF(_liuan_day_hour!D22="","",_liuan_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G27" s="16" t="str">
+      <c r="G27" s="8" t="str">
         <f>IF(_liuan_day_hour!E22="","",_liuan_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H27" s="16" t="str">
+      <c r="H27" s="8" t="str">
         <f>IF(_liuan_day_hour!F22="","",_liuan_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="8" t="str">
         <f>IF(_liuan_day_hour!G22="","",_liuan_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J27" s="16" t="str">
+      <c r="J27" s="8" t="str">
         <f>IF(_liuan_day_hour!H22="","",_liuan_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K27" s="16" t="str">
+      <c r="K27" s="8" t="str">
         <f>IF(_liuan_day_hour!I22="","",_liuan_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L27" s="16" t="str">
+      <c r="L27" s="8" t="str">
         <f>IF(_liuan_day_hour!J22="","",_liuan_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M27" s="16" t="str">
+      <c r="M27" s="8" t="str">
         <f>IF(_liuan_day_hour!K22="","",_liuan_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N27" s="16" t="str">
+      <c r="N27" s="8" t="str">
         <f>IF(_liuan_day_hour!L22="","",_liuan_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O27" s="16" t="str">
+      <c r="O27" s="8" t="str">
         <f>IF(_liuan_day_hour!M22="","",_liuan_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P27" s="16" t="str">
+      <c r="P27" s="8" t="str">
         <f>IF(_liuan_day_hour!N22="","",_liuan_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q27" s="16" t="str">
+      <c r="Q27" s="8" t="str">
         <f>IF(_liuan_day_hour!O22="","",_liuan_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R27" s="42" t="str">
+      <c r="R27" s="14" t="str">
         <f>IF(_liuan_day_hour!P22="","",_liuan_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S27" s="50"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="52"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="55"/>
     </row>
-    <row r="28" customFormat="1" spans="2:23">
-      <c r="B28" s="15">
+    <row r="28" spans="2:23">
+      <c r="B28" s="7">
         <v>0.875</v>
       </c>
-      <c r="C28" s="16" t="str">
+      <c r="C28" s="8" t="str">
         <f>IF(_liuan_day_hour!A23="","",_liuan_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D28" s="16" t="str">
+      <c r="D28" s="8" t="str">
         <f>IF(_liuan_day_hour!B23="","",_liuan_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E28" s="16" t="str">
+      <c r="E28" s="8" t="str">
         <f>IF(_liuan_day_hour!C23="","",_liuan_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F28" s="16" t="str">
+      <c r="F28" s="8" t="str">
         <f>IF(_liuan_day_hour!D23="","",_liuan_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G28" s="16" t="str">
+      <c r="G28" s="8" t="str">
         <f>IF(_liuan_day_hour!E23="","",_liuan_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H28" s="16" t="str">
+      <c r="H28" s="8" t="str">
         <f>IF(_liuan_day_hour!F23="","",_liuan_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I28" s="16" t="str">
+      <c r="I28" s="8" t="str">
         <f>IF(_liuan_day_hour!G23="","",_liuan_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J28" s="16" t="str">
+      <c r="J28" s="8" t="str">
         <f>IF(_liuan_day_hour!H23="","",_liuan_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K28" s="16" t="str">
+      <c r="K28" s="8" t="str">
         <f>IF(_liuan_day_hour!I23="","",_liuan_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L28" s="16" t="str">
+      <c r="L28" s="8" t="str">
         <f>IF(_liuan_day_hour!J23="","",_liuan_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M28" s="16" t="str">
+      <c r="M28" s="8" t="str">
         <f>IF(_liuan_day_hour!K23="","",_liuan_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N28" s="16" t="str">
+      <c r="N28" s="8" t="str">
         <f>IF(_liuan_day_hour!L23="","",_liuan_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O28" s="16" t="str">
+      <c r="O28" s="8" t="str">
         <f>IF(_liuan_day_hour!M23="","",_liuan_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P28" s="16" t="str">
+      <c r="P28" s="8" t="str">
         <f>IF(_liuan_day_hour!N23="","",_liuan_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q28" s="16" t="str">
+      <c r="Q28" s="8" t="str">
         <f>IF(_liuan_day_hour!O23="","",_liuan_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R28" s="42" t="str">
+      <c r="R28" s="14" t="str">
         <f>IF(_liuan_day_hour!P23="","",_liuan_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S28" s="50"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="52"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="55"/>
     </row>
-    <row r="29" customFormat="1" spans="2:23">
-      <c r="B29" s="15">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C29" s="16" t="str">
+    <row r="29" spans="2:23">
+      <c r="B29" s="7">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C29" s="8" t="str">
         <f>IF(_liuan_day_hour!A24="","",_liuan_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D29" s="16" t="str">
+      <c r="D29" s="8" t="str">
         <f>IF(_liuan_day_hour!B24="","",_liuan_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E29" s="16" t="str">
+      <c r="E29" s="8" t="str">
         <f>IF(_liuan_day_hour!C24="","",_liuan_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F29" s="16" t="str">
+      <c r="F29" s="8" t="str">
         <f>IF(_liuan_day_hour!D24="","",_liuan_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G29" s="16" t="str">
+      <c r="G29" s="8" t="str">
         <f>IF(_liuan_day_hour!E24="","",_liuan_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H29" s="16" t="str">
+      <c r="H29" s="8" t="str">
         <f>IF(_liuan_day_hour!F24="","",_liuan_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I29" s="16" t="str">
+      <c r="I29" s="8" t="str">
         <f>IF(_liuan_day_hour!G24="","",_liuan_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J29" s="16" t="str">
+      <c r="J29" s="8" t="str">
         <f>IF(_liuan_day_hour!H24="","",_liuan_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K29" s="16" t="str">
+      <c r="K29" s="8" t="str">
         <f>IF(_liuan_day_hour!I24="","",_liuan_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L29" s="16" t="str">
+      <c r="L29" s="8" t="str">
         <f>IF(_liuan_day_hour!J24="","",_liuan_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M29" s="16" t="str">
+      <c r="M29" s="8" t="str">
         <f>IF(_liuan_day_hour!K24="","",_liuan_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N29" s="16" t="str">
+      <c r="N29" s="8" t="str">
         <f>IF(_liuan_day_hour!L24="","",_liuan_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O29" s="16" t="str">
+      <c r="O29" s="8" t="str">
         <f>IF(_liuan_day_hour!M24="","",_liuan_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P29" s="16" t="str">
+      <c r="P29" s="8" t="str">
         <f>IF(_liuan_day_hour!N24="","",_liuan_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q29" s="16" t="str">
+      <c r="Q29" s="8" t="str">
         <f>IF(_liuan_day_hour!O24="","",_liuan_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R29" s="42" t="str">
+      <c r="R29" s="14" t="str">
         <f>IF(_liuan_day_hour!P24="","",_liuan_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S29" s="50"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="52"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="55"/>
     </row>
-    <row r="30" customFormat="1" spans="2:23">
-      <c r="B30" s="15">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C30" s="16" t="str">
+    <row r="30" spans="2:23">
+      <c r="B30" s="7">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C30" s="8" t="str">
         <f>IF(_liuan_day_hour!A25="","",_liuan_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D30" s="16" t="str">
+      <c r="D30" s="8" t="str">
         <f>IF(_liuan_day_hour!B25="","",_liuan_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E30" s="16" t="str">
+      <c r="E30" s="8" t="str">
         <f>IF(_liuan_day_hour!C25="","",_liuan_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F30" s="16" t="str">
+      <c r="F30" s="8" t="str">
         <f>IF(_liuan_day_hour!D25="","",_liuan_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G30" s="16" t="str">
+      <c r="G30" s="8" t="str">
         <f>IF(_liuan_day_hour!E25="","",_liuan_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H30" s="16" t="str">
+      <c r="H30" s="8" t="str">
         <f>IF(_liuan_day_hour!F25="","",_liuan_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I30" s="16" t="str">
+      <c r="I30" s="8" t="str">
         <f>IF(_liuan_day_hour!G25="","",_liuan_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J30" s="16" t="str">
+      <c r="J30" s="8" t="str">
         <f>IF(_liuan_day_hour!H25="","",_liuan_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K30" s="16" t="str">
+      <c r="K30" s="8" t="str">
         <f>IF(_liuan_day_hour!I25="","",_liuan_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L30" s="16" t="str">
+      <c r="L30" s="8" t="str">
         <f>IF(_liuan_day_hour!J25="","",_liuan_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M30" s="16" t="str">
+      <c r="M30" s="8" t="str">
         <f>IF(_liuan_day_hour!K25="","",_liuan_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N30" s="16" t="str">
+      <c r="N30" s="8" t="str">
         <f>IF(_liuan_day_hour!L25="","",_liuan_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O30" s="16" t="str">
+      <c r="O30" s="8" t="str">
         <f>IF(_liuan_day_hour!M25="","",_liuan_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P30" s="16" t="str">
+      <c r="P30" s="8" t="str">
         <f>IF(_liuan_day_hour!N25="","",_liuan_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q30" s="16" t="str">
+      <c r="Q30" s="8" t="str">
         <f>IF(_liuan_day_hour!O25="","",_liuan_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R30" s="42" t="str">
+      <c r="R30" s="14" t="str">
         <f>IF(_liuan_day_hour!P25="","",_liuan_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S30" s="50"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="52"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="55"/>
     </row>
-    <row r="31" customFormat="1" spans="2:23">
-      <c r="B31" s="17" t="s">
+    <row r="31" spans="2:23">
+      <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="52"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="55"/>
     </row>
-    <row r="32" customFormat="1" spans="2:23">
-      <c r="B32" s="17" t="s">
+    <row r="32" spans="2:23">
+      <c r="B32" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="52"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="55"/>
     </row>
-    <row r="33" customFormat="1" spans="2:23">
-      <c r="B33" s="17" t="s">
+    <row r="33" spans="2:23">
+      <c r="B33" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="52"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="55"/>
     </row>
-    <row r="34" customFormat="1" ht="14.25" spans="2:23">
-      <c r="B34" s="17" t="s">
+    <row r="34" spans="2:23">
+      <c r="B34" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="52"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="55"/>
     </row>
-    <row r="35" customFormat="1" ht="65.45" customHeight="1" spans="2:23">
-      <c r="B35" s="18" t="s">
+    <row r="35" spans="2:23" ht="65.45" customHeight="1">
+      <c r="B35" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="18" t="s">
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="18" t="s">
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="52"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="55"/>
     </row>
-    <row r="36" customFormat="1" ht="16.5" spans="2:23">
-      <c r="B36" s="20" t="s">
+    <row r="36" spans="2:23" ht="15.75">
+      <c r="B36" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="20" t="s">
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="20" t="s">
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="58"/>
-      <c r="S36" s="58"/>
-      <c r="T36" s="58"/>
-      <c r="U36" s="58"/>
-      <c r="V36" s="58"/>
-      <c r="W36" s="59"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="S3:W5"/>
+    <mergeCell ref="S14:W36"/>
+    <mergeCell ref="Q35:R36"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="G36:K36"/>
     <mergeCell ref="L36:P36"/>
@@ -4574,23 +3982,35 @@
     <mergeCell ref="N3:N5"/>
     <mergeCell ref="O3:O5"/>
     <mergeCell ref="P3:P5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="S7:S10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="Q3:Q5"/>
     <mergeCell ref="R3:R5"/>
-    <mergeCell ref="S7:S10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S3:W5"/>
-    <mergeCell ref="S14:W36"/>
-    <mergeCell ref="Q35:R36"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4599,7 +4019,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" customFormat="1" ht="45" spans="1:16">
+    <row r="1" spans="1:16" ht="45">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -4650,39 +4070,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-硫铵（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-硫铵（日）报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="4.硫铵（日）" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>6-7#  焦炉硫铵 操 作 记 录</t>
   </si>
@@ -30,7 +30,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -40,7 +39,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">      </t>
     </r>
@@ -49,7 +48,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -98,7 +96,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -108,7 +105,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>℃</t>
@@ -201,7 +197,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">产量
@@ -212,7 +207,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> t</t>
     </r>
@@ -223,7 +218,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">含氮量
@@ -234,7 +228,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>%</t>
     </r>
@@ -245,7 +239,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">游离酸
@@ -256,7 +249,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>%</t>
     </r>
@@ -290,7 +283,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -299,7 +292,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>夜班记事：</t>
@@ -308,7 +300,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -318,7 +310,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -326,7 +318,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白</t>
@@ -336,7 +327,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -345,7 +335,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -355,7 +345,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -363,7 +353,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中</t>
@@ -373,7 +362,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -382,7 +370,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -392,7 +380,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -401,7 +389,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>交班：</t>
@@ -410,7 +397,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
@@ -419,7 +406,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接班：</t>
@@ -429,8 +415,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,7 +434,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -450,7 +441,6 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -458,7 +448,6 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -466,21 +455,18 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -488,7 +474,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -496,71 +481,393 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -745,6 +1052,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -921,14 +1237,256 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -936,6 +1494,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -948,126 +1530,94 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1077,10 +1627,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1089,24 +1650,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1117,7 +1716,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1131,14 +1730,14 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13823950" y="6201410"/>
+          <a:off x="13823950" y="6258560"/>
           <a:ext cx="4687570" cy="144145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1323,7 +1922,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Line 2"/>
         <xdr:cNvSpPr>
@@ -1332,7 +1931,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6772275" y="712470"/>
+          <a:off x="6772275" y="769620"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1369,7 +1968,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Line 3"/>
         <xdr:cNvSpPr>
@@ -1378,7 +1977,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6772275" y="1074420"/>
+          <a:off x="6772275" y="1131570"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1415,7 +2014,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Line 5"/>
         <xdr:cNvSpPr>
@@ -1424,7 +2023,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6772275" y="712470"/>
+          <a:off x="6772275" y="769620"/>
           <a:ext cx="0" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1461,7 +2060,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Line 6"/>
         <xdr:cNvSpPr>
@@ -1470,7 +2069,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6772275" y="712470"/>
+          <a:off x="6772275" y="769620"/>
           <a:ext cx="0" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1749,12 +2348,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1771,181 +2370,181 @@
     <col min="18" max="18" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25.5">
-      <c r="B1" s="19" t="s">
+    <row r="1" ht="25.5" spans="2:18">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:23" ht="14.25">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="61">
+    <row r="2" ht="19.5" spans="2:18">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="10" t="s">
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.6" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37" t="s">
+    <row r="3" ht="15.6" customHeight="1" spans="1:23">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="22" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="40" t="s">
+      <c r="M3" s="26"/>
+      <c r="N3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="O3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="P3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="40" t="s">
+      <c r="Q3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="45" t="s">
+      <c r="S3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="46"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="32"/>
     </row>
-    <row r="4" spans="1:23" ht="14.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="24" t="s">
+    <row r="4" ht="14.25" spans="1:23">
+      <c r="A4" s="5"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="49"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="36"/>
     </row>
-    <row r="5" spans="1:23" ht="14.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+    <row r="5" ht="14.25" spans="1:23">
+      <c r="A5" s="5"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="28"/>
+      <c r="J5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="49"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="36"/>
     </row>
-    <row r="6" spans="1:23" ht="31.5" customHeight="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="6" t="s">
+    <row r="6" ht="31.5" customHeight="1" spans="1:23">
+      <c r="A6" s="5"/>
+      <c r="B6" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1996,1983 +2595,1997 @@
       <c r="R6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="26" t="s">
+      <c r="S6" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="T6" s="27"/>
-      <c r="U6" s="12" t="s">
+      <c r="T6" s="39"/>
+      <c r="U6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="V6" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="W6" s="13" t="s">
+      <c r="W6" s="41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14.1" customHeight="1">
-      <c r="B7" s="7">
+    <row r="7" ht="14.1" customHeight="1" spans="2:23">
+      <c r="B7" s="15">
         <v>0</v>
       </c>
-      <c r="C7" s="8" t="str">
+      <c r="C7" s="16" t="str">
         <f>IF(_liuan_day_hour!A2="","",_liuan_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D7" s="8" t="str">
+      <c r="D7" s="16" t="str">
         <f>IF(_liuan_day_hour!B2="","",_liuan_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E7" s="8" t="str">
+      <c r="E7" s="16" t="str">
         <f>IF(_liuan_day_hour!C2="","",_liuan_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F7" s="8" t="str">
+      <c r="F7" s="16" t="str">
         <f>IF(_liuan_day_hour!D2="","",_liuan_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G7" s="8" t="str">
+      <c r="G7" s="16" t="str">
         <f>IF(_liuan_day_hour!E2="","",_liuan_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H7" s="8" t="str">
+      <c r="H7" s="16" t="str">
         <f>IF(_liuan_day_hour!F2="","",_liuan_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I7" s="8" t="str">
+      <c r="I7" s="16" t="str">
         <f>IF(_liuan_day_hour!G2="","",_liuan_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J7" s="8" t="str">
+      <c r="J7" s="16" t="str">
         <f>IF(_liuan_day_hour!H2="","",_liuan_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K7" s="8" t="str">
+      <c r="K7" s="16" t="str">
         <f>IF(_liuan_day_hour!I2="","",_liuan_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L7" s="8" t="str">
+      <c r="L7" s="16" t="str">
         <f>IF(_liuan_day_hour!J2="","",_liuan_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M7" s="8" t="str">
+      <c r="M7" s="16" t="str">
         <f>IF(_liuan_day_hour!K2="","",_liuan_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N7" s="8" t="str">
+      <c r="N7" s="16" t="str">
         <f>IF(_liuan_day_hour!L2="","",_liuan_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O7" s="8" t="str">
+      <c r="O7" s="16" t="str">
         <f>IF(_liuan_day_hour!M2="","",_liuan_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P7" s="8" t="str">
+      <c r="P7" s="16" t="str">
         <f>IF(_liuan_day_hour!N2="","",_liuan_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q7" s="8" t="str">
+      <c r="Q7" s="16" t="str">
         <f>IF(_liuan_day_hour!O2="","",_liuan_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R7" s="14" t="str">
+      <c r="R7" s="42" t="str">
         <f>IF(_liuan_day_hour!P2="","",_liuan_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S7" s="44" t="s">
+      <c r="S7" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="T7" s="15" t="s">
+      <c r="T7" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="13"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="41"/>
     </row>
-    <row r="8" spans="1:23">
-      <c r="B8" s="7">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="C8" s="8" t="str">
+    <row r="8" spans="2:23">
+      <c r="B8" s="15">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C8" s="16" t="str">
         <f>IF(_liuan_day_hour!A3="","",_liuan_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D8" s="8" t="str">
+      <c r="D8" s="16" t="str">
         <f>IF(_liuan_day_hour!B3="","",_liuan_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E8" s="8" t="str">
+      <c r="E8" s="16" t="str">
         <f>IF(_liuan_day_hour!C3="","",_liuan_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F8" s="8" t="str">
+      <c r="F8" s="16" t="str">
         <f>IF(_liuan_day_hour!D3="","",_liuan_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G8" s="8" t="str">
+      <c r="G8" s="16" t="str">
         <f>IF(_liuan_day_hour!E3="","",_liuan_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H8" s="8" t="str">
+      <c r="H8" s="16" t="str">
         <f>IF(_liuan_day_hour!F3="","",_liuan_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I8" s="8" t="str">
+      <c r="I8" s="16" t="str">
         <f>IF(_liuan_day_hour!G3="","",_liuan_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J8" s="8" t="str">
+      <c r="J8" s="16" t="str">
         <f>IF(_liuan_day_hour!H3="","",_liuan_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K8" s="8" t="str">
+      <c r="K8" s="16" t="str">
         <f>IF(_liuan_day_hour!I3="","",_liuan_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L8" s="8" t="str">
+      <c r="L8" s="16" t="str">
         <f>IF(_liuan_day_hour!J3="","",_liuan_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M8" s="8" t="str">
+      <c r="M8" s="16" t="str">
         <f>IF(_liuan_day_hour!K3="","",_liuan_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N8" s="8" t="str">
+      <c r="N8" s="16" t="str">
         <f>IF(_liuan_day_hour!L3="","",_liuan_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O8" s="8" t="str">
+      <c r="O8" s="16" t="str">
         <f>IF(_liuan_day_hour!M3="","",_liuan_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P8" s="8" t="str">
+      <c r="P8" s="16" t="str">
         <f>IF(_liuan_day_hour!N3="","",_liuan_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q8" s="8" t="str">
+      <c r="Q8" s="16" t="str">
         <f>IF(_liuan_day_hour!O3="","",_liuan_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R8" s="14" t="str">
+      <c r="R8" s="42" t="str">
         <f>IF(_liuan_day_hour!P3="","",_liuan_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S8" s="44"/>
-      <c r="T8" s="15" t="s">
+      <c r="S8" s="43"/>
+      <c r="T8" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="13"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="41"/>
     </row>
-    <row r="9" spans="1:23">
-      <c r="B9" s="7">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="C9" s="8" t="str">
+    <row r="9" spans="2:23">
+      <c r="B9" s="15">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C9" s="16" t="str">
         <f>IF(_liuan_day_hour!A4="","",_liuan_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D9" s="8" t="str">
+      <c r="D9" s="16" t="str">
         <f>IF(_liuan_day_hour!B4="","",_liuan_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E9" s="8" t="str">
+      <c r="E9" s="16" t="str">
         <f>IF(_liuan_day_hour!C4="","",_liuan_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F9" s="8" t="str">
+      <c r="F9" s="16" t="str">
         <f>IF(_liuan_day_hour!D4="","",_liuan_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G9" s="8" t="str">
+      <c r="G9" s="16" t="str">
         <f>IF(_liuan_day_hour!E4="","",_liuan_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H9" s="8" t="str">
+      <c r="H9" s="16" t="str">
         <f>IF(_liuan_day_hour!F4="","",_liuan_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I9" s="8" t="str">
+      <c r="I9" s="16" t="str">
         <f>IF(_liuan_day_hour!G4="","",_liuan_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J9" s="8" t="str">
+      <c r="J9" s="16" t="str">
         <f>IF(_liuan_day_hour!H4="","",_liuan_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K9" s="8" t="str">
+      <c r="K9" s="16" t="str">
         <f>IF(_liuan_day_hour!I4="","",_liuan_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L9" s="8" t="str">
+      <c r="L9" s="16" t="str">
         <f>IF(_liuan_day_hour!J4="","",_liuan_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M9" s="8" t="str">
+      <c r="M9" s="16" t="str">
         <f>IF(_liuan_day_hour!K4="","",_liuan_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N9" s="8" t="str">
+      <c r="N9" s="16" t="str">
         <f>IF(_liuan_day_hour!L4="","",_liuan_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O9" s="8" t="str">
+      <c r="O9" s="16" t="str">
         <f>IF(_liuan_day_hour!M4="","",_liuan_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P9" s="8" t="str">
+      <c r="P9" s="16" t="str">
         <f>IF(_liuan_day_hour!N4="","",_liuan_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q9" s="8" t="str">
+      <c r="Q9" s="16" t="str">
         <f>IF(_liuan_day_hour!O4="","",_liuan_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R9" s="14" t="str">
+      <c r="R9" s="42" t="str">
         <f>IF(_liuan_day_hour!P4="","",_liuan_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S9" s="44"/>
-      <c r="T9" s="15" t="s">
+      <c r="S9" s="43"/>
+      <c r="T9" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="13"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="41"/>
     </row>
-    <row r="10" spans="1:23" ht="14.1" customHeight="1">
-      <c r="B10" s="7">
+    <row r="10" ht="14.1" customHeight="1" spans="2:23">
+      <c r="B10" s="15">
         <v>0.125</v>
       </c>
-      <c r="C10" s="8" t="str">
+      <c r="C10" s="16" t="str">
         <f>IF(_liuan_day_hour!A5="","",_liuan_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D10" s="8" t="str">
+      <c r="D10" s="16" t="str">
         <f>IF(_liuan_day_hour!B5="","",_liuan_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E10" s="8" t="str">
+      <c r="E10" s="16" t="str">
         <f>IF(_liuan_day_hour!C5="","",_liuan_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F10" s="8" t="str">
+      <c r="F10" s="16" t="str">
         <f>IF(_liuan_day_hour!D5="","",_liuan_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G10" s="8" t="str">
+      <c r="G10" s="16" t="str">
         <f>IF(_liuan_day_hour!E5="","",_liuan_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H10" s="8" t="str">
+      <c r="H10" s="16" t="str">
         <f>IF(_liuan_day_hour!F5="","",_liuan_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I10" s="8" t="str">
+      <c r="I10" s="16" t="str">
         <f>IF(_liuan_day_hour!G5="","",_liuan_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J10" s="8" t="str">
+      <c r="J10" s="16" t="str">
         <f>IF(_liuan_day_hour!H5="","",_liuan_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K10" s="8" t="str">
+      <c r="K10" s="16" t="str">
         <f>IF(_liuan_day_hour!I5="","",_liuan_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L10" s="8" t="str">
+      <c r="L10" s="16" t="str">
         <f>IF(_liuan_day_hour!J5="","",_liuan_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M10" s="8" t="str">
+      <c r="M10" s="16" t="str">
         <f>IF(_liuan_day_hour!K5="","",_liuan_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N10" s="8" t="str">
+      <c r="N10" s="16" t="str">
         <f>IF(_liuan_day_hour!L5="","",_liuan_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O10" s="8" t="str">
+      <c r="O10" s="16" t="str">
         <f>IF(_liuan_day_hour!M5="","",_liuan_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P10" s="8" t="str">
+      <c r="P10" s="16" t="str">
         <f>IF(_liuan_day_hour!N5="","",_liuan_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q10" s="8" t="str">
+      <c r="Q10" s="16" t="str">
         <f>IF(_liuan_day_hour!O5="","",_liuan_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R10" s="14" t="str">
+      <c r="R10" s="42" t="str">
         <f>IF(_liuan_day_hour!P5="","",_liuan_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S10" s="44"/>
-      <c r="T10" s="15" t="s">
+      <c r="S10" s="43"/>
+      <c r="T10" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="13"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="41"/>
     </row>
-    <row r="11" spans="1:23">
-      <c r="B11" s="7">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="C11" s="8" t="str">
+    <row r="11" spans="2:23">
+      <c r="B11" s="15">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="C11" s="16" t="str">
         <f>IF(_liuan_day_hour!A6="","",_liuan_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D11" s="8" t="str">
+      <c r="D11" s="16" t="str">
         <f>IF(_liuan_day_hour!B6="","",_liuan_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E11" s="8" t="str">
+      <c r="E11" s="16" t="str">
         <f>IF(_liuan_day_hour!C6="","",_liuan_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F11" s="8" t="str">
+      <c r="F11" s="16" t="str">
         <f>IF(_liuan_day_hour!D6="","",_liuan_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G11" s="8" t="str">
+      <c r="G11" s="16" t="str">
         <f>IF(_liuan_day_hour!E6="","",_liuan_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H11" s="8" t="str">
+      <c r="H11" s="16" t="str">
         <f>IF(_liuan_day_hour!F6="","",_liuan_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I11" s="8" t="str">
+      <c r="I11" s="16" t="str">
         <f>IF(_liuan_day_hour!G6="","",_liuan_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J11" s="8" t="str">
+      <c r="J11" s="16" t="str">
         <f>IF(_liuan_day_hour!H6="","",_liuan_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K11" s="8" t="str">
+      <c r="K11" s="16" t="str">
         <f>IF(_liuan_day_hour!I6="","",_liuan_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L11" s="8" t="str">
+      <c r="L11" s="16" t="str">
         <f>IF(_liuan_day_hour!J6="","",_liuan_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M11" s="8" t="str">
+      <c r="M11" s="16" t="str">
         <f>IF(_liuan_day_hour!K6="","",_liuan_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N11" s="8" t="str">
+      <c r="N11" s="16" t="str">
         <f>IF(_liuan_day_hour!L6="","",_liuan_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O11" s="8" t="str">
+      <c r="O11" s="16" t="str">
         <f>IF(_liuan_day_hour!M6="","",_liuan_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P11" s="8" t="str">
+      <c r="P11" s="16" t="str">
         <f>IF(_liuan_day_hour!N6="","",_liuan_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q11" s="8" t="str">
+      <c r="Q11" s="16" t="str">
         <f>IF(_liuan_day_hour!O6="","",_liuan_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R11" s="14" t="str">
+      <c r="R11" s="42" t="str">
         <f>IF(_liuan_day_hour!P6="","",_liuan_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S11" s="44" t="s">
+      <c r="S11" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="T11" s="16" t="s">
+      <c r="T11" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="13"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="41"/>
     </row>
-    <row r="12" spans="1:23">
-      <c r="B12" s="7">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="C12" s="8" t="str">
+    <row r="12" spans="2:23">
+      <c r="B12" s="15">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="C12" s="16" t="str">
         <f>IF(_liuan_day_hour!A7="","",_liuan_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D12" s="8" t="str">
+      <c r="D12" s="16" t="str">
         <f>IF(_liuan_day_hour!B7="","",_liuan_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E12" s="8" t="str">
+      <c r="E12" s="16" t="str">
         <f>IF(_liuan_day_hour!C7="","",_liuan_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F12" s="8" t="str">
+      <c r="F12" s="16" t="str">
         <f>IF(_liuan_day_hour!D7="","",_liuan_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G12" s="8" t="str">
+      <c r="G12" s="16" t="str">
         <f>IF(_liuan_day_hour!E7="","",_liuan_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H12" s="8" t="str">
+      <c r="H12" s="16" t="str">
         <f>IF(_liuan_day_hour!F7="","",_liuan_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I12" s="8" t="str">
+      <c r="I12" s="16" t="str">
         <f>IF(_liuan_day_hour!G7="","",_liuan_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J12" s="8" t="str">
+      <c r="J12" s="16" t="str">
         <f>IF(_liuan_day_hour!H7="","",_liuan_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K12" s="8" t="str">
+      <c r="K12" s="16" t="str">
         <f>IF(_liuan_day_hour!I7="","",_liuan_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L12" s="8" t="str">
+      <c r="L12" s="16" t="str">
         <f>IF(_liuan_day_hour!J7="","",_liuan_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M12" s="8" t="str">
+      <c r="M12" s="16" t="str">
         <f>IF(_liuan_day_hour!K7="","",_liuan_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N12" s="8" t="str">
+      <c r="N12" s="16" t="str">
         <f>IF(_liuan_day_hour!L7="","",_liuan_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O12" s="8" t="str">
+      <c r="O12" s="16" t="str">
         <f>IF(_liuan_day_hour!M7="","",_liuan_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P12" s="8" t="str">
+      <c r="P12" s="16" t="str">
         <f>IF(_liuan_day_hour!N7="","",_liuan_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q12" s="8" t="str">
+      <c r="Q12" s="16" t="str">
         <f>IF(_liuan_day_hour!O7="","",_liuan_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R12" s="14" t="str">
+      <c r="R12" s="42" t="str">
         <f>IF(_liuan_day_hour!P7="","",_liuan_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S12" s="44"/>
-      <c r="T12" s="15" t="s">
+      <c r="S12" s="43"/>
+      <c r="T12" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="13"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="41"/>
     </row>
-    <row r="13" spans="1:23" ht="14.1" customHeight="1">
-      <c r="B13" s="7">
+    <row r="13" ht="14.1" customHeight="1" spans="2:23">
+      <c r="B13" s="15">
         <v>0.25</v>
       </c>
-      <c r="C13" s="8" t="str">
+      <c r="C13" s="16" t="str">
         <f>IF(_liuan_day_hour!A8="","",_liuan_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D13" s="8" t="str">
+      <c r="D13" s="16" t="str">
         <f>IF(_liuan_day_hour!B8="","",_liuan_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E13" s="8" t="str">
+      <c r="E13" s="16" t="str">
         <f>IF(_liuan_day_hour!C8="","",_liuan_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F13" s="8" t="str">
+      <c r="F13" s="16" t="str">
         <f>IF(_liuan_day_hour!D8="","",_liuan_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G13" s="8" t="str">
+      <c r="G13" s="16" t="str">
         <f>IF(_liuan_day_hour!E8="","",_liuan_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H13" s="8" t="str">
+      <c r="H13" s="16" t="str">
         <f>IF(_liuan_day_hour!F8="","",_liuan_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I13" s="8" t="str">
+      <c r="I13" s="16" t="str">
         <f>IF(_liuan_day_hour!G8="","",_liuan_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J13" s="8" t="str">
+      <c r="J13" s="16" t="str">
         <f>IF(_liuan_day_hour!H8="","",_liuan_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K13" s="8" t="str">
+      <c r="K13" s="16" t="str">
         <f>IF(_liuan_day_hour!I8="","",_liuan_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L13" s="8" t="str">
+      <c r="L13" s="16" t="str">
         <f>IF(_liuan_day_hour!J8="","",_liuan_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M13" s="8" t="str">
+      <c r="M13" s="16" t="str">
         <f>IF(_liuan_day_hour!K8="","",_liuan_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N13" s="8" t="str">
+      <c r="N13" s="16" t="str">
         <f>IF(_liuan_day_hour!L8="","",_liuan_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O13" s="8" t="str">
+      <c r="O13" s="16" t="str">
         <f>IF(_liuan_day_hour!M8="","",_liuan_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P13" s="8" t="str">
+      <c r="P13" s="16" t="str">
         <f>IF(_liuan_day_hour!N8="","",_liuan_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q13" s="8" t="str">
+      <c r="Q13" s="16" t="str">
         <f>IF(_liuan_day_hour!O8="","",_liuan_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R13" s="14" t="str">
+      <c r="R13" s="42" t="str">
         <f>IF(_liuan_day_hour!P8="","",_liuan_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S13" s="28" t="s">
+      <c r="S13" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="T13" s="29"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="13"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="41"/>
     </row>
-    <row r="14" spans="1:23">
-      <c r="B14" s="7">
-        <v>0.29166666666666702</v>
-      </c>
-      <c r="C14" s="8" t="str">
+    <row r="14" spans="2:23">
+      <c r="B14" s="15">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="C14" s="16" t="str">
         <f>IF(_liuan_day_hour!A9="","",_liuan_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D14" s="8" t="str">
+      <c r="D14" s="16" t="str">
         <f>IF(_liuan_day_hour!B9="","",_liuan_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E14" s="8" t="str">
+      <c r="E14" s="16" t="str">
         <f>IF(_liuan_day_hour!C9="","",_liuan_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F14" s="8" t="str">
+      <c r="F14" s="16" t="str">
         <f>IF(_liuan_day_hour!D9="","",_liuan_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G14" s="8" t="str">
+      <c r="G14" s="16" t="str">
         <f>IF(_liuan_day_hour!E9="","",_liuan_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H14" s="8" t="str">
+      <c r="H14" s="16" t="str">
         <f>IF(_liuan_day_hour!F9="","",_liuan_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I14" s="8" t="str">
+      <c r="I14" s="16" t="str">
         <f>IF(_liuan_day_hour!G9="","",_liuan_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J14" s="8" t="str">
+      <c r="J14" s="16" t="str">
         <f>IF(_liuan_day_hour!H9="","",_liuan_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K14" s="8" t="str">
+      <c r="K14" s="16" t="str">
         <f>IF(_liuan_day_hour!I9="","",_liuan_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L14" s="8" t="str">
+      <c r="L14" s="16" t="str">
         <f>IF(_liuan_day_hour!J9="","",_liuan_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M14" s="8" t="str">
+      <c r="M14" s="16" t="str">
         <f>IF(_liuan_day_hour!K9="","",_liuan_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N14" s="8" t="str">
+      <c r="N14" s="16" t="str">
         <f>IF(_liuan_day_hour!L9="","",_liuan_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O14" s="8" t="str">
+      <c r="O14" s="16" t="str">
         <f>IF(_liuan_day_hour!M9="","",_liuan_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P14" s="8" t="str">
+      <c r="P14" s="16" t="str">
         <f>IF(_liuan_day_hour!N9="","",_liuan_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q14" s="8" t="str">
+      <c r="Q14" s="16" t="str">
         <f>IF(_liuan_day_hour!O9="","",_liuan_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R14" s="14" t="str">
+      <c r="R14" s="42" t="str">
         <f>IF(_liuan_day_hour!P9="","",_liuan_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S14" s="50"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="52"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="49"/>
     </row>
-    <row r="15" spans="1:23" ht="14.1" customHeight="1">
-      <c r="B15" s="7">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C15" s="8" t="str">
+    <row r="15" ht="14.1" customHeight="1" spans="2:23">
+      <c r="B15" s="15">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C15" s="16" t="str">
         <f>IF(_liuan_day_hour!A10="","",_liuan_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D15" s="8" t="str">
+      <c r="D15" s="16" t="str">
         <f>IF(_liuan_day_hour!B10="","",_liuan_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E15" s="8" t="str">
+      <c r="E15" s="16" t="str">
         <f>IF(_liuan_day_hour!C10="","",_liuan_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F15" s="8" t="str">
+      <c r="F15" s="16" t="str">
         <f>IF(_liuan_day_hour!D10="","",_liuan_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G15" s="8" t="str">
+      <c r="G15" s="16" t="str">
         <f>IF(_liuan_day_hour!E10="","",_liuan_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H15" s="8" t="str">
+      <c r="H15" s="16" t="str">
         <f>IF(_liuan_day_hour!F10="","",_liuan_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I15" s="8" t="str">
+      <c r="I15" s="16" t="str">
         <f>IF(_liuan_day_hour!G10="","",_liuan_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J15" s="8" t="str">
+      <c r="J15" s="16" t="str">
         <f>IF(_liuan_day_hour!H10="","",_liuan_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K15" s="8" t="str">
+      <c r="K15" s="16" t="str">
         <f>IF(_liuan_day_hour!I10="","",_liuan_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L15" s="8" t="str">
+      <c r="L15" s="16" t="str">
         <f>IF(_liuan_day_hour!J10="","",_liuan_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M15" s="8" t="str">
+      <c r="M15" s="16" t="str">
         <f>IF(_liuan_day_hour!K10="","",_liuan_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N15" s="8" t="str">
+      <c r="N15" s="16" t="str">
         <f>IF(_liuan_day_hour!L10="","",_liuan_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O15" s="8" t="str">
+      <c r="O15" s="16" t="str">
         <f>IF(_liuan_day_hour!M10="","",_liuan_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P15" s="8" t="str">
+      <c r="P15" s="16" t="str">
         <f>IF(_liuan_day_hour!N10="","",_liuan_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q15" s="8" t="str">
+      <c r="Q15" s="16" t="str">
         <f>IF(_liuan_day_hour!O10="","",_liuan_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R15" s="14" t="str">
+      <c r="R15" s="42" t="str">
         <f>IF(_liuan_day_hour!P10="","",_liuan_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S15" s="53"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="55"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="52"/>
     </row>
-    <row r="16" spans="1:23">
-      <c r="B16" s="7">
+    <row r="16" spans="2:23">
+      <c r="B16" s="15">
         <v>0.375</v>
       </c>
-      <c r="C16" s="8" t="str">
+      <c r="C16" s="16" t="str">
         <f>IF(_liuan_day_hour!A11="","",_liuan_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D16" s="8" t="str">
+      <c r="D16" s="16" t="str">
         <f>IF(_liuan_day_hour!B11="","",_liuan_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E16" s="8" t="str">
+      <c r="E16" s="16" t="str">
         <f>IF(_liuan_day_hour!C11="","",_liuan_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F16" s="8" t="str">
+      <c r="F16" s="16" t="str">
         <f>IF(_liuan_day_hour!D11="","",_liuan_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G16" s="8" t="str">
+      <c r="G16" s="16" t="str">
         <f>IF(_liuan_day_hour!E11="","",_liuan_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H16" s="8" t="str">
+      <c r="H16" s="16" t="str">
         <f>IF(_liuan_day_hour!F11="","",_liuan_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I16" s="8" t="str">
+      <c r="I16" s="16" t="str">
         <f>IF(_liuan_day_hour!G11="","",_liuan_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J16" s="8" t="str">
+      <c r="J16" s="16" t="str">
         <f>IF(_liuan_day_hour!H11="","",_liuan_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K16" s="8" t="str">
+      <c r="K16" s="16" t="str">
         <f>IF(_liuan_day_hour!I11="","",_liuan_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L16" s="8" t="str">
+      <c r="L16" s="16" t="str">
         <f>IF(_liuan_day_hour!J11="","",_liuan_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M16" s="8" t="str">
+      <c r="M16" s="16" t="str">
         <f>IF(_liuan_day_hour!K11="","",_liuan_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N16" s="8" t="str">
+      <c r="N16" s="16" t="str">
         <f>IF(_liuan_day_hour!L11="","",_liuan_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O16" s="8" t="str">
+      <c r="O16" s="16" t="str">
         <f>IF(_liuan_day_hour!M11="","",_liuan_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P16" s="8" t="str">
+      <c r="P16" s="16" t="str">
         <f>IF(_liuan_day_hour!N11="","",_liuan_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q16" s="8" t="str">
+      <c r="Q16" s="16" t="str">
         <f>IF(_liuan_day_hour!O11="","",_liuan_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R16" s="14" t="str">
+      <c r="R16" s="42" t="str">
         <f>IF(_liuan_day_hour!P11="","",_liuan_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S16" s="53"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="55"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="52"/>
     </row>
     <row r="17" spans="2:23">
-      <c r="B17" s="7">
-        <v>0.41666666666666602</v>
-      </c>
-      <c r="C17" s="8" t="str">
+      <c r="B17" s="15">
+        <v>0.416666666666666</v>
+      </c>
+      <c r="C17" s="16" t="str">
         <f>IF(_liuan_day_hour!A12="","",_liuan_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D17" s="8" t="str">
+      <c r="D17" s="16" t="str">
         <f>IF(_liuan_day_hour!B12="","",_liuan_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E17" s="8" t="str">
+      <c r="E17" s="16" t="str">
         <f>IF(_liuan_day_hour!C12="","",_liuan_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F17" s="8" t="str">
+      <c r="F17" s="16" t="str">
         <f>IF(_liuan_day_hour!D12="","",_liuan_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G17" s="8" t="str">
+      <c r="G17" s="16" t="str">
         <f>IF(_liuan_day_hour!E12="","",_liuan_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H17" s="8" t="str">
+      <c r="H17" s="16" t="str">
         <f>IF(_liuan_day_hour!F12="","",_liuan_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I17" s="8" t="str">
+      <c r="I17" s="16" t="str">
         <f>IF(_liuan_day_hour!G12="","",_liuan_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J17" s="8" t="str">
+      <c r="J17" s="16" t="str">
         <f>IF(_liuan_day_hour!H12="","",_liuan_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K17" s="8" t="str">
+      <c r="K17" s="16" t="str">
         <f>IF(_liuan_day_hour!I12="","",_liuan_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L17" s="8" t="str">
+      <c r="L17" s="16" t="str">
         <f>IF(_liuan_day_hour!J12="","",_liuan_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M17" s="8" t="str">
+      <c r="M17" s="16" t="str">
         <f>IF(_liuan_day_hour!K12="","",_liuan_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N17" s="8" t="str">
+      <c r="N17" s="16" t="str">
         <f>IF(_liuan_day_hour!L12="","",_liuan_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O17" s="8" t="str">
+      <c r="O17" s="16" t="str">
         <f>IF(_liuan_day_hour!M12="","",_liuan_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P17" s="8" t="str">
+      <c r="P17" s="16" t="str">
         <f>IF(_liuan_day_hour!N12="","",_liuan_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q17" s="8" t="str">
+      <c r="Q17" s="16" t="str">
         <f>IF(_liuan_day_hour!O12="","",_liuan_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R17" s="14" t="str">
+      <c r="R17" s="42" t="str">
         <f>IF(_liuan_day_hour!P12="","",_liuan_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S17" s="53"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="55"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="52"/>
     </row>
-    <row r="18" spans="2:23" ht="14.1" customHeight="1">
-      <c r="B18" s="7">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="C18" s="8" t="str">
+    <row r="18" ht="14.1" customHeight="1" spans="2:23">
+      <c r="B18" s="15">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C18" s="16" t="str">
         <f>IF(_liuan_day_hour!A13="","",_liuan_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D18" s="8" t="str">
+      <c r="D18" s="16" t="str">
         <f>IF(_liuan_day_hour!B13="","",_liuan_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E18" s="8" t="str">
+      <c r="E18" s="16" t="str">
         <f>IF(_liuan_day_hour!C13="","",_liuan_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F18" s="8" t="str">
+      <c r="F18" s="16" t="str">
         <f>IF(_liuan_day_hour!D13="","",_liuan_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G18" s="8" t="str">
+      <c r="G18" s="16" t="str">
         <f>IF(_liuan_day_hour!E13="","",_liuan_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H18" s="8" t="str">
+      <c r="H18" s="16" t="str">
         <f>IF(_liuan_day_hour!F13="","",_liuan_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I18" s="8" t="str">
+      <c r="I18" s="16" t="str">
         <f>IF(_liuan_day_hour!G13="","",_liuan_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J18" s="8" t="str">
+      <c r="J18" s="16" t="str">
         <f>IF(_liuan_day_hour!H13="","",_liuan_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K18" s="8" t="str">
+      <c r="K18" s="16" t="str">
         <f>IF(_liuan_day_hour!I13="","",_liuan_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L18" s="8" t="str">
+      <c r="L18" s="16" t="str">
         <f>IF(_liuan_day_hour!J13="","",_liuan_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M18" s="8" t="str">
+      <c r="M18" s="16" t="str">
         <f>IF(_liuan_day_hour!K13="","",_liuan_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N18" s="8" t="str">
+      <c r="N18" s="16" t="str">
         <f>IF(_liuan_day_hour!L13="","",_liuan_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O18" s="8" t="str">
+      <c r="O18" s="16" t="str">
         <f>IF(_liuan_day_hour!M13="","",_liuan_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P18" s="8" t="str">
+      <c r="P18" s="16" t="str">
         <f>IF(_liuan_day_hour!N13="","",_liuan_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q18" s="8" t="str">
+      <c r="Q18" s="16" t="str">
         <f>IF(_liuan_day_hour!O13="","",_liuan_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R18" s="14" t="str">
+      <c r="R18" s="42" t="str">
         <f>IF(_liuan_day_hour!P13="","",_liuan_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S18" s="53"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="55"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="52"/>
     </row>
-    <row r="19" spans="2:23" ht="14.1" customHeight="1">
-      <c r="B19" s="7">
+    <row r="19" ht="14.1" customHeight="1" spans="2:23">
+      <c r="B19" s="15">
         <v>0.5</v>
       </c>
-      <c r="C19" s="8" t="str">
+      <c r="C19" s="16" t="str">
         <f>IF(_liuan_day_hour!A14="","",_liuan_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D19" s="8" t="str">
+      <c r="D19" s="16" t="str">
         <f>IF(_liuan_day_hour!B14="","",_liuan_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E19" s="8" t="str">
+      <c r="E19" s="16" t="str">
         <f>IF(_liuan_day_hour!C14="","",_liuan_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F19" s="8" t="str">
+      <c r="F19" s="16" t="str">
         <f>IF(_liuan_day_hour!D14="","",_liuan_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G19" s="8" t="str">
+      <c r="G19" s="16" t="str">
         <f>IF(_liuan_day_hour!E14="","",_liuan_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H19" s="8" t="str">
+      <c r="H19" s="16" t="str">
         <f>IF(_liuan_day_hour!F14="","",_liuan_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I19" s="8" t="str">
+      <c r="I19" s="16" t="str">
         <f>IF(_liuan_day_hour!G14="","",_liuan_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J19" s="8" t="str">
+      <c r="J19" s="16" t="str">
         <f>IF(_liuan_day_hour!H14="","",_liuan_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K19" s="8" t="str">
+      <c r="K19" s="16" t="str">
         <f>IF(_liuan_day_hour!I14="","",_liuan_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L19" s="8" t="str">
+      <c r="L19" s="16" t="str">
         <f>IF(_liuan_day_hour!J14="","",_liuan_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M19" s="8" t="str">
+      <c r="M19" s="16" t="str">
         <f>IF(_liuan_day_hour!K14="","",_liuan_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N19" s="8" t="str">
+      <c r="N19" s="16" t="str">
         <f>IF(_liuan_day_hour!L14="","",_liuan_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O19" s="8" t="str">
+      <c r="O19" s="16" t="str">
         <f>IF(_liuan_day_hour!M14="","",_liuan_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P19" s="8" t="str">
+      <c r="P19" s="16" t="str">
         <f>IF(_liuan_day_hour!N14="","",_liuan_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q19" s="8" t="str">
+      <c r="Q19" s="16" t="str">
         <f>IF(_liuan_day_hour!O14="","",_liuan_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R19" s="14" t="str">
+      <c r="R19" s="42" t="str">
         <f>IF(_liuan_day_hour!P14="","",_liuan_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S19" s="53"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="55"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="52"/>
     </row>
-    <row r="20" spans="2:23" ht="14.1" customHeight="1">
-      <c r="B20" s="7">
-        <v>0.54166666666666596</v>
-      </c>
-      <c r="C20" s="8" t="str">
+    <row r="20" ht="14.1" customHeight="1" spans="2:23">
+      <c r="B20" s="15">
+        <v>0.541666666666666</v>
+      </c>
+      <c r="C20" s="16" t="str">
         <f>IF(_liuan_day_hour!A15="","",_liuan_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D20" s="8" t="str">
+      <c r="D20" s="16" t="str">
         <f>IF(_liuan_day_hour!B15="","",_liuan_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E20" s="8" t="str">
+      <c r="E20" s="16" t="str">
         <f>IF(_liuan_day_hour!C15="","",_liuan_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F20" s="8" t="str">
+      <c r="F20" s="16" t="str">
         <f>IF(_liuan_day_hour!D15="","",_liuan_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G20" s="8" t="str">
+      <c r="G20" s="16" t="str">
         <f>IF(_liuan_day_hour!E15="","",_liuan_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H20" s="8" t="str">
+      <c r="H20" s="16" t="str">
         <f>IF(_liuan_day_hour!F15="","",_liuan_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I20" s="8" t="str">
+      <c r="I20" s="16" t="str">
         <f>IF(_liuan_day_hour!G15="","",_liuan_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J20" s="8" t="str">
+      <c r="J20" s="16" t="str">
         <f>IF(_liuan_day_hour!H15="","",_liuan_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K20" s="8" t="str">
+      <c r="K20" s="16" t="str">
         <f>IF(_liuan_day_hour!I15="","",_liuan_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L20" s="8" t="str">
+      <c r="L20" s="16" t="str">
         <f>IF(_liuan_day_hour!J15="","",_liuan_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M20" s="8" t="str">
+      <c r="M20" s="16" t="str">
         <f>IF(_liuan_day_hour!K15="","",_liuan_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N20" s="8" t="str">
+      <c r="N20" s="16" t="str">
         <f>IF(_liuan_day_hour!L15="","",_liuan_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O20" s="8" t="str">
+      <c r="O20" s="16" t="str">
         <f>IF(_liuan_day_hour!M15="","",_liuan_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P20" s="8" t="str">
+      <c r="P20" s="16" t="str">
         <f>IF(_liuan_day_hour!N15="","",_liuan_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q20" s="8" t="str">
+      <c r="Q20" s="16" t="str">
         <f>IF(_liuan_day_hour!O15="","",_liuan_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R20" s="14" t="str">
+      <c r="R20" s="42" t="str">
         <f>IF(_liuan_day_hour!P15="","",_liuan_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S20" s="53"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="55"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="52"/>
     </row>
-    <row r="21" spans="2:23" ht="14.1" customHeight="1">
-      <c r="B21" s="7">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C21" s="8" t="str">
+    <row r="21" ht="14.1" customHeight="1" spans="2:23">
+      <c r="B21" s="15">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C21" s="16" t="str">
         <f>IF(_liuan_day_hour!A16="","",_liuan_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D21" s="8" t="str">
+      <c r="D21" s="16" t="str">
         <f>IF(_liuan_day_hour!B16="","",_liuan_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E21" s="8" t="str">
+      <c r="E21" s="16" t="str">
         <f>IF(_liuan_day_hour!C16="","",_liuan_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F21" s="8" t="str">
+      <c r="F21" s="16" t="str">
         <f>IF(_liuan_day_hour!D16="","",_liuan_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G21" s="8" t="str">
+      <c r="G21" s="16" t="str">
         <f>IF(_liuan_day_hour!E16="","",_liuan_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H21" s="8" t="str">
+      <c r="H21" s="16" t="str">
         <f>IF(_liuan_day_hour!F16="","",_liuan_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I21" s="8" t="str">
+      <c r="I21" s="16" t="str">
         <f>IF(_liuan_day_hour!G16="","",_liuan_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J21" s="8" t="str">
+      <c r="J21" s="16" t="str">
         <f>IF(_liuan_day_hour!H16="","",_liuan_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K21" s="8" t="str">
+      <c r="K21" s="16" t="str">
         <f>IF(_liuan_day_hour!I16="","",_liuan_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L21" s="8" t="str">
+      <c r="L21" s="16" t="str">
         <f>IF(_liuan_day_hour!J16="","",_liuan_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M21" s="8" t="str">
+      <c r="M21" s="16" t="str">
         <f>IF(_liuan_day_hour!K16="","",_liuan_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N21" s="8" t="str">
+      <c r="N21" s="16" t="str">
         <f>IF(_liuan_day_hour!L16="","",_liuan_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O21" s="8" t="str">
+      <c r="O21" s="16" t="str">
         <f>IF(_liuan_day_hour!M16="","",_liuan_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P21" s="8" t="str">
+      <c r="P21" s="16" t="str">
         <f>IF(_liuan_day_hour!N16="","",_liuan_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q21" s="8" t="str">
+      <c r="Q21" s="16" t="str">
         <f>IF(_liuan_day_hour!O16="","",_liuan_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R21" s="14" t="str">
+      <c r="R21" s="42" t="str">
         <f>IF(_liuan_day_hour!P16="","",_liuan_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S21" s="53"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="55"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="52"/>
     </row>
     <row r="22" spans="2:23">
-      <c r="B22" s="7">
+      <c r="B22" s="15">
         <v>0.625</v>
       </c>
-      <c r="C22" s="8" t="str">
+      <c r="C22" s="16" t="str">
         <f>IF(_liuan_day_hour!A17="","",_liuan_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D22" s="8" t="str">
+      <c r="D22" s="16" t="str">
         <f>IF(_liuan_day_hour!B17="","",_liuan_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E22" s="8" t="str">
+      <c r="E22" s="16" t="str">
         <f>IF(_liuan_day_hour!C17="","",_liuan_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F22" s="8" t="str">
+      <c r="F22" s="16" t="str">
         <f>IF(_liuan_day_hour!D17="","",_liuan_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G22" s="8" t="str">
+      <c r="G22" s="16" t="str">
         <f>IF(_liuan_day_hour!E17="","",_liuan_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H22" s="8" t="str">
+      <c r="H22" s="16" t="str">
         <f>IF(_liuan_day_hour!F17="","",_liuan_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I22" s="8" t="str">
+      <c r="I22" s="16" t="str">
         <f>IF(_liuan_day_hour!G17="","",_liuan_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J22" s="8" t="str">
+      <c r="J22" s="16" t="str">
         <f>IF(_liuan_day_hour!H17="","",_liuan_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K22" s="8" t="str">
+      <c r="K22" s="16" t="str">
         <f>IF(_liuan_day_hour!I17="","",_liuan_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L22" s="8" t="str">
+      <c r="L22" s="16" t="str">
         <f>IF(_liuan_day_hour!J17="","",_liuan_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M22" s="8" t="str">
+      <c r="M22" s="16" t="str">
         <f>IF(_liuan_day_hour!K17="","",_liuan_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N22" s="8" t="str">
+      <c r="N22" s="16" t="str">
         <f>IF(_liuan_day_hour!L17="","",_liuan_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O22" s="8" t="str">
+      <c r="O22" s="16" t="str">
         <f>IF(_liuan_day_hour!M17="","",_liuan_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P22" s="8" t="str">
+      <c r="P22" s="16" t="str">
         <f>IF(_liuan_day_hour!N17="","",_liuan_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q22" s="8" t="str">
+      <c r="Q22" s="16" t="str">
         <f>IF(_liuan_day_hour!O17="","",_liuan_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R22" s="14" t="str">
+      <c r="R22" s="42" t="str">
         <f>IF(_liuan_day_hour!P17="","",_liuan_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S22" s="53"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="55"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="52"/>
     </row>
     <row r="23" spans="2:23">
-      <c r="B23" s="7">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C23" s="8" t="str">
+      <c r="B23" s="15">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C23" s="16" t="str">
         <f>IF(_liuan_day_hour!A18="","",_liuan_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D23" s="8" t="str">
+      <c r="D23" s="16" t="str">
         <f>IF(_liuan_day_hour!B18="","",_liuan_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E23" s="8" t="str">
+      <c r="E23" s="16" t="str">
         <f>IF(_liuan_day_hour!C18="","",_liuan_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F23" s="8" t="str">
+      <c r="F23" s="16" t="str">
         <f>IF(_liuan_day_hour!D18="","",_liuan_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G23" s="8" t="str">
+      <c r="G23" s="16" t="str">
         <f>IF(_liuan_day_hour!E18="","",_liuan_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H23" s="8" t="str">
+      <c r="H23" s="16" t="str">
         <f>IF(_liuan_day_hour!F18="","",_liuan_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I23" s="8" t="str">
+      <c r="I23" s="16" t="str">
         <f>IF(_liuan_day_hour!G18="","",_liuan_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J23" s="8" t="str">
+      <c r="J23" s="16" t="str">
         <f>IF(_liuan_day_hour!H18="","",_liuan_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K23" s="8" t="str">
+      <c r="K23" s="16" t="str">
         <f>IF(_liuan_day_hour!I18="","",_liuan_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L23" s="8" t="str">
+      <c r="L23" s="16" t="str">
         <f>IF(_liuan_day_hour!J18="","",_liuan_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M23" s="8" t="str">
+      <c r="M23" s="16" t="str">
         <f>IF(_liuan_day_hour!K18="","",_liuan_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N23" s="8" t="str">
+      <c r="N23" s="16" t="str">
         <f>IF(_liuan_day_hour!L18="","",_liuan_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O23" s="8" t="str">
+      <c r="O23" s="16" t="str">
         <f>IF(_liuan_day_hour!M18="","",_liuan_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P23" s="8" t="str">
+      <c r="P23" s="16" t="str">
         <f>IF(_liuan_day_hour!N18="","",_liuan_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q23" s="8" t="str">
+      <c r="Q23" s="16" t="str">
         <f>IF(_liuan_day_hour!O18="","",_liuan_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R23" s="14" t="str">
+      <c r="R23" s="42" t="str">
         <f>IF(_liuan_day_hour!P18="","",_liuan_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S23" s="53"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="55"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="52"/>
     </row>
     <row r="24" spans="2:23">
-      <c r="B24" s="7">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="C24" s="8" t="str">
+      <c r="B24" s="15">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C24" s="16" t="str">
         <f>IF(_liuan_day_hour!A19="","",_liuan_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D24" s="8" t="str">
+      <c r="D24" s="16" t="str">
         <f>IF(_liuan_day_hour!B19="","",_liuan_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E24" s="8" t="str">
+      <c r="E24" s="16" t="str">
         <f>IF(_liuan_day_hour!C19="","",_liuan_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F24" s="8" t="str">
+      <c r="F24" s="16" t="str">
         <f>IF(_liuan_day_hour!D19="","",_liuan_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G24" s="8" t="str">
+      <c r="G24" s="16" t="str">
         <f>IF(_liuan_day_hour!E19="","",_liuan_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H24" s="8" t="str">
+      <c r="H24" s="16" t="str">
         <f>IF(_liuan_day_hour!F19="","",_liuan_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I24" s="8" t="str">
+      <c r="I24" s="16" t="str">
         <f>IF(_liuan_day_hour!G19="","",_liuan_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J24" s="8" t="str">
+      <c r="J24" s="16" t="str">
         <f>IF(_liuan_day_hour!H19="","",_liuan_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K24" s="8" t="str">
+      <c r="K24" s="16" t="str">
         <f>IF(_liuan_day_hour!I19="","",_liuan_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L24" s="8" t="str">
+      <c r="L24" s="16" t="str">
         <f>IF(_liuan_day_hour!J19="","",_liuan_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M24" s="8" t="str">
+      <c r="M24" s="16" t="str">
         <f>IF(_liuan_day_hour!K19="","",_liuan_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N24" s="8" t="str">
+      <c r="N24" s="16" t="str">
         <f>IF(_liuan_day_hour!L19="","",_liuan_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O24" s="8" t="str">
+      <c r="O24" s="16" t="str">
         <f>IF(_liuan_day_hour!M19="","",_liuan_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P24" s="8" t="str">
+      <c r="P24" s="16" t="str">
         <f>IF(_liuan_day_hour!N19="","",_liuan_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q24" s="8" t="str">
+      <c r="Q24" s="16" t="str">
         <f>IF(_liuan_day_hour!O19="","",_liuan_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R24" s="14" t="str">
+      <c r="R24" s="42" t="str">
         <f>IF(_liuan_day_hour!P19="","",_liuan_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S24" s="53"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="55"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="52"/>
     </row>
     <row r="25" spans="2:23">
-      <c r="B25" s="7">
+      <c r="B25" s="15">
         <v>0.75</v>
       </c>
-      <c r="C25" s="8" t="str">
+      <c r="C25" s="16" t="str">
         <f>IF(_liuan_day_hour!A20="","",_liuan_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D25" s="8" t="str">
+      <c r="D25" s="16" t="str">
         <f>IF(_liuan_day_hour!B20="","",_liuan_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E25" s="8" t="str">
+      <c r="E25" s="16" t="str">
         <f>IF(_liuan_day_hour!C20="","",_liuan_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F25" s="8" t="str">
+      <c r="F25" s="16" t="str">
         <f>IF(_liuan_day_hour!D20="","",_liuan_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G25" s="8" t="str">
+      <c r="G25" s="16" t="str">
         <f>IF(_liuan_day_hour!E20="","",_liuan_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H25" s="8" t="str">
+      <c r="H25" s="16" t="str">
         <f>IF(_liuan_day_hour!F20="","",_liuan_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I25" s="8" t="str">
+      <c r="I25" s="16" t="str">
         <f>IF(_liuan_day_hour!G20="","",_liuan_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J25" s="8" t="str">
+      <c r="J25" s="16" t="str">
         <f>IF(_liuan_day_hour!H20="","",_liuan_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K25" s="8" t="str">
+      <c r="K25" s="16" t="str">
         <f>IF(_liuan_day_hour!I20="","",_liuan_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L25" s="8" t="str">
+      <c r="L25" s="16" t="str">
         <f>IF(_liuan_day_hour!J20="","",_liuan_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M25" s="8" t="str">
+      <c r="M25" s="16" t="str">
         <f>IF(_liuan_day_hour!K20="","",_liuan_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N25" s="8" t="str">
+      <c r="N25" s="16" t="str">
         <f>IF(_liuan_day_hour!L20="","",_liuan_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O25" s="8" t="str">
+      <c r="O25" s="16" t="str">
         <f>IF(_liuan_day_hour!M20="","",_liuan_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P25" s="8" t="str">
+      <c r="P25" s="16" t="str">
         <f>IF(_liuan_day_hour!N20="","",_liuan_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q25" s="8" t="str">
+      <c r="Q25" s="16" t="str">
         <f>IF(_liuan_day_hour!O20="","",_liuan_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R25" s="14" t="str">
+      <c r="R25" s="42" t="str">
         <f>IF(_liuan_day_hour!P20="","",_liuan_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S25" s="53"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="55"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="52"/>
     </row>
     <row r="26" spans="2:23">
-      <c r="B26" s="7">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="C26" s="8" t="str">
+      <c r="B26" s="15">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C26" s="16" t="str">
         <f>IF(_liuan_day_hour!A21="","",_liuan_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D26" s="8" t="str">
+      <c r="D26" s="16" t="str">
         <f>IF(_liuan_day_hour!B21="","",_liuan_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E26" s="8" t="str">
+      <c r="E26" s="16" t="str">
         <f>IF(_liuan_day_hour!C21="","",_liuan_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F26" s="8" t="str">
+      <c r="F26" s="16" t="str">
         <f>IF(_liuan_day_hour!D21="","",_liuan_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G26" s="8" t="str">
+      <c r="G26" s="16" t="str">
         <f>IF(_liuan_day_hour!E21="","",_liuan_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H26" s="8" t="str">
+      <c r="H26" s="16" t="str">
         <f>IF(_liuan_day_hour!F21="","",_liuan_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I26" s="8" t="str">
+      <c r="I26" s="16" t="str">
         <f>IF(_liuan_day_hour!G21="","",_liuan_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J26" s="8" t="str">
+      <c r="J26" s="16" t="str">
         <f>IF(_liuan_day_hour!H21="","",_liuan_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K26" s="8" t="str">
+      <c r="K26" s="16" t="str">
         <f>IF(_liuan_day_hour!I21="","",_liuan_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L26" s="8" t="str">
+      <c r="L26" s="16" t="str">
         <f>IF(_liuan_day_hour!J21="","",_liuan_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M26" s="8" t="str">
+      <c r="M26" s="16" t="str">
         <f>IF(_liuan_day_hour!K21="","",_liuan_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N26" s="8" t="str">
+      <c r="N26" s="16" t="str">
         <f>IF(_liuan_day_hour!L21="","",_liuan_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O26" s="8" t="str">
+      <c r="O26" s="16" t="str">
         <f>IF(_liuan_day_hour!M21="","",_liuan_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P26" s="8" t="str">
+      <c r="P26" s="16" t="str">
         <f>IF(_liuan_day_hour!N21="","",_liuan_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q26" s="8" t="str">
+      <c r="Q26" s="16" t="str">
         <f>IF(_liuan_day_hour!O21="","",_liuan_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R26" s="14" t="str">
+      <c r="R26" s="42" t="str">
         <f>IF(_liuan_day_hour!P21="","",_liuan_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S26" s="53"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="55"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="52"/>
     </row>
     <row r="27" spans="2:23">
-      <c r="B27" s="7">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="C27" s="8" t="str">
+      <c r="B27" s="15">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C27" s="16" t="str">
         <f>IF(_liuan_day_hour!A22="","",_liuan_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D27" s="8" t="str">
+      <c r="D27" s="16" t="str">
         <f>IF(_liuan_day_hour!B22="","",_liuan_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E27" s="8" t="str">
+      <c r="E27" s="16" t="str">
         <f>IF(_liuan_day_hour!C22="","",_liuan_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F27" s="8" t="str">
+      <c r="F27" s="16" t="str">
         <f>IF(_liuan_day_hour!D22="","",_liuan_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G27" s="8" t="str">
+      <c r="G27" s="16" t="str">
         <f>IF(_liuan_day_hour!E22="","",_liuan_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H27" s="8" t="str">
+      <c r="H27" s="16" t="str">
         <f>IF(_liuan_day_hour!F22="","",_liuan_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I27" s="8" t="str">
+      <c r="I27" s="16" t="str">
         <f>IF(_liuan_day_hour!G22="","",_liuan_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J27" s="8" t="str">
+      <c r="J27" s="16" t="str">
         <f>IF(_liuan_day_hour!H22="","",_liuan_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K27" s="8" t="str">
+      <c r="K27" s="16" t="str">
         <f>IF(_liuan_day_hour!I22="","",_liuan_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L27" s="8" t="str">
+      <c r="L27" s="16" t="str">
         <f>IF(_liuan_day_hour!J22="","",_liuan_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M27" s="8" t="str">
+      <c r="M27" s="16" t="str">
         <f>IF(_liuan_day_hour!K22="","",_liuan_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N27" s="8" t="str">
+      <c r="N27" s="16" t="str">
         <f>IF(_liuan_day_hour!L22="","",_liuan_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O27" s="8" t="str">
+      <c r="O27" s="16" t="str">
         <f>IF(_liuan_day_hour!M22="","",_liuan_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P27" s="8" t="str">
+      <c r="P27" s="16" t="str">
         <f>IF(_liuan_day_hour!N22="","",_liuan_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q27" s="8" t="str">
+      <c r="Q27" s="16" t="str">
         <f>IF(_liuan_day_hour!O22="","",_liuan_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R27" s="14" t="str">
+      <c r="R27" s="42" t="str">
         <f>IF(_liuan_day_hour!P22="","",_liuan_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S27" s="53"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="55"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="52"/>
     </row>
     <row r="28" spans="2:23">
-      <c r="B28" s="7">
+      <c r="B28" s="15">
         <v>0.875</v>
       </c>
-      <c r="C28" s="8" t="str">
+      <c r="C28" s="16" t="str">
         <f>IF(_liuan_day_hour!A23="","",_liuan_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D28" s="8" t="str">
+      <c r="D28" s="16" t="str">
         <f>IF(_liuan_day_hour!B23="","",_liuan_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E28" s="8" t="str">
+      <c r="E28" s="16" t="str">
         <f>IF(_liuan_day_hour!C23="","",_liuan_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F28" s="8" t="str">
+      <c r="F28" s="16" t="str">
         <f>IF(_liuan_day_hour!D23="","",_liuan_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G28" s="8" t="str">
+      <c r="G28" s="16" t="str">
         <f>IF(_liuan_day_hour!E23="","",_liuan_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H28" s="8" t="str">
+      <c r="H28" s="16" t="str">
         <f>IF(_liuan_day_hour!F23="","",_liuan_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I28" s="8" t="str">
+      <c r="I28" s="16" t="str">
         <f>IF(_liuan_day_hour!G23="","",_liuan_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J28" s="8" t="str">
+      <c r="J28" s="16" t="str">
         <f>IF(_liuan_day_hour!H23="","",_liuan_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K28" s="8" t="str">
+      <c r="K28" s="16" t="str">
         <f>IF(_liuan_day_hour!I23="","",_liuan_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L28" s="8" t="str">
+      <c r="L28" s="16" t="str">
         <f>IF(_liuan_day_hour!J23="","",_liuan_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M28" s="8" t="str">
+      <c r="M28" s="16" t="str">
         <f>IF(_liuan_day_hour!K23="","",_liuan_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N28" s="8" t="str">
+      <c r="N28" s="16" t="str">
         <f>IF(_liuan_day_hour!L23="","",_liuan_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O28" s="8" t="str">
+      <c r="O28" s="16" t="str">
         <f>IF(_liuan_day_hour!M23="","",_liuan_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P28" s="8" t="str">
+      <c r="P28" s="16" t="str">
         <f>IF(_liuan_day_hour!N23="","",_liuan_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q28" s="8" t="str">
+      <c r="Q28" s="16" t="str">
         <f>IF(_liuan_day_hour!O23="","",_liuan_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R28" s="14" t="str">
+      <c r="R28" s="42" t="str">
         <f>IF(_liuan_day_hour!P23="","",_liuan_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S28" s="53"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="55"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="52"/>
     </row>
     <row r="29" spans="2:23">
-      <c r="B29" s="7">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="C29" s="8" t="str">
+      <c r="B29" s="15">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C29" s="16" t="str">
         <f>IF(_liuan_day_hour!A24="","",_liuan_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D29" s="8" t="str">
+      <c r="D29" s="16" t="str">
         <f>IF(_liuan_day_hour!B24="","",_liuan_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E29" s="8" t="str">
+      <c r="E29" s="16" t="str">
         <f>IF(_liuan_day_hour!C24="","",_liuan_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F29" s="8" t="str">
+      <c r="F29" s="16" t="str">
         <f>IF(_liuan_day_hour!D24="","",_liuan_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G29" s="8" t="str">
+      <c r="G29" s="16" t="str">
         <f>IF(_liuan_day_hour!E24="","",_liuan_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H29" s="8" t="str">
+      <c r="H29" s="16" t="str">
         <f>IF(_liuan_day_hour!F24="","",_liuan_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I29" s="8" t="str">
+      <c r="I29" s="16" t="str">
         <f>IF(_liuan_day_hour!G24="","",_liuan_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J29" s="8" t="str">
+      <c r="J29" s="16" t="str">
         <f>IF(_liuan_day_hour!H24="","",_liuan_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K29" s="8" t="str">
+      <c r="K29" s="16" t="str">
         <f>IF(_liuan_day_hour!I24="","",_liuan_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L29" s="8" t="str">
+      <c r="L29" s="16" t="str">
         <f>IF(_liuan_day_hour!J24="","",_liuan_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M29" s="8" t="str">
+      <c r="M29" s="16" t="str">
         <f>IF(_liuan_day_hour!K24="","",_liuan_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N29" s="8" t="str">
+      <c r="N29" s="16" t="str">
         <f>IF(_liuan_day_hour!L24="","",_liuan_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O29" s="8" t="str">
+      <c r="O29" s="16" t="str">
         <f>IF(_liuan_day_hour!M24="","",_liuan_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P29" s="8" t="str">
+      <c r="P29" s="16" t="str">
         <f>IF(_liuan_day_hour!N24="","",_liuan_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q29" s="8" t="str">
+      <c r="Q29" s="16" t="str">
         <f>IF(_liuan_day_hour!O24="","",_liuan_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R29" s="14" t="str">
+      <c r="R29" s="42" t="str">
         <f>IF(_liuan_day_hour!P24="","",_liuan_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S29" s="53"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="55"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="52"/>
     </row>
     <row r="30" spans="2:23">
-      <c r="B30" s="7">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="C30" s="8" t="str">
+      <c r="B30" s="15">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C30" s="16" t="str">
         <f>IF(_liuan_day_hour!A25="","",_liuan_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D30" s="8" t="str">
+      <c r="D30" s="16" t="str">
         <f>IF(_liuan_day_hour!B25="","",_liuan_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E30" s="8" t="str">
+      <c r="E30" s="16" t="str">
         <f>IF(_liuan_day_hour!C25="","",_liuan_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F30" s="8" t="str">
+      <c r="F30" s="16" t="str">
         <f>IF(_liuan_day_hour!D25="","",_liuan_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G30" s="8" t="str">
+      <c r="G30" s="16" t="str">
         <f>IF(_liuan_day_hour!E25="","",_liuan_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H30" s="8" t="str">
+      <c r="H30" s="16" t="str">
         <f>IF(_liuan_day_hour!F25="","",_liuan_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I30" s="8" t="str">
+      <c r="I30" s="16" t="str">
         <f>IF(_liuan_day_hour!G25="","",_liuan_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J30" s="8" t="str">
+      <c r="J30" s="16" t="str">
         <f>IF(_liuan_day_hour!H25="","",_liuan_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K30" s="8" t="str">
+      <c r="K30" s="16" t="str">
         <f>IF(_liuan_day_hour!I25="","",_liuan_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L30" s="8" t="str">
+      <c r="L30" s="16" t="str">
         <f>IF(_liuan_day_hour!J25="","",_liuan_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M30" s="8" t="str">
+      <c r="M30" s="16" t="str">
         <f>IF(_liuan_day_hour!K25="","",_liuan_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N30" s="8" t="str">
+      <c r="N30" s="16" t="str">
         <f>IF(_liuan_day_hour!L25="","",_liuan_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O30" s="8" t="str">
+      <c r="O30" s="16" t="str">
         <f>IF(_liuan_day_hour!M25="","",_liuan_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P30" s="8" t="str">
+      <c r="P30" s="16" t="str">
         <f>IF(_liuan_day_hour!N25="","",_liuan_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q30" s="8" t="str">
+      <c r="Q30" s="16" t="str">
         <f>IF(_liuan_day_hour!O25="","",_liuan_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R30" s="14" t="str">
+      <c r="R30" s="42" t="str">
         <f>IF(_liuan_day_hour!P25="","",_liuan_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S30" s="53"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="54"/>
-      <c r="W30" s="55"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="52"/>
     </row>
     <row r="31" spans="2:23">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="55"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="52"/>
     </row>
     <row r="32" spans="2:23">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="55"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="52"/>
     </row>
     <row r="33" spans="2:23">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="55"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="52"/>
     </row>
-    <row r="34" spans="2:23">
-      <c r="B34" s="9" t="s">
+    <row r="34" ht="14.25" spans="2:23">
+      <c r="B34" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54"/>
-      <c r="W34" s="55"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="52"/>
     </row>
-    <row r="35" spans="2:23" ht="65.45" customHeight="1">
-      <c r="B35" s="30" t="s">
+    <row r="35" ht="65.45" customHeight="1" spans="2:23">
+      <c r="B35" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="30" t="s">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="30" t="s">
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="55"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="52"/>
     </row>
-    <row r="36" spans="2:23" ht="15.75">
-      <c r="B36" s="33" t="s">
+    <row r="36" ht="16.5" spans="2:23">
+      <c r="B36" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="33" t="s">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="33" t="s">
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="57"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="58"/>
+      <c r="T36" s="58"/>
+      <c r="U36" s="58"/>
+      <c r="V36" s="58"/>
+      <c r="W36" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="S3:W5"/>
-    <mergeCell ref="S14:W36"/>
-    <mergeCell ref="Q35:R36"/>
+  <mergeCells count="33">
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="L35:P35"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="G36:K36"/>
     <mergeCell ref="L36:P36"/>
@@ -3982,35 +4595,23 @@
     <mergeCell ref="N3:N5"/>
     <mergeCell ref="O3:O5"/>
     <mergeCell ref="P3:P5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="Q3:Q5"/>
+    <mergeCell ref="R3:R5"/>
     <mergeCell ref="S7:S10"/>
     <mergeCell ref="S11:S12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="Q3:Q5"/>
-    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="S3:W5"/>
+    <mergeCell ref="S14:W36"/>
+    <mergeCell ref="Q35:R36"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4019,7 +4620,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="45">
+    <row r="1" ht="45" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -4070,26 +4671,30 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4098,7 +4703,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-硫铵（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-硫铵（日）报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="4.硫铵（日）" sheetId="1" r:id="rId1"/>
@@ -417,12 +417,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,11 +489,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -501,50 +496,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,15 +510,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,9 +561,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,14 +608,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -620,34 +615,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -682,7 +670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,7 +682,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,168 +850,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1052,15 +1040,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1234,6 +1213,24 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1249,15 +1246,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1292,6 +1280,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1315,36 +1314,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1353,133 +1332,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -1555,8 +1534,8 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1570,19 +1549,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1591,10 +1570,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1604,12 +1583,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1618,6 +1597,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1627,30 +1609,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1737,7 +1716,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13823950" y="6258560"/>
+          <a:off x="13823950" y="6201410"/>
           <a:ext cx="4687570" cy="144145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1931,7 +1910,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6772275" y="769620"/>
+          <a:off x="6772275" y="712470"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1977,7 +1956,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6772275" y="1131570"/>
+          <a:off x="6772275" y="1074420"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2023,7 +2002,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6772275" y="769620"/>
+          <a:off x="6772275" y="712470"/>
           <a:ext cx="0" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2069,7 +2048,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6772275" y="769620"/>
+          <a:off x="6772275" y="712470"/>
           <a:ext cx="0" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2370,7 +2349,7 @@
     <col min="18" max="18" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="2:18">
+    <row r="1" customFormat="1" ht="25.5" spans="2:18">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2391,7 +2370,7 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" ht="19.5" spans="2:18">
+    <row r="2" customFormat="1" ht="15" spans="2:18">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2402,9 +2381,9 @@
       <c r="I2" s="4"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="24">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="L2" s="24" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
@@ -2415,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15.6" customHeight="1" spans="1:23">
+    <row r="3" customFormat="1" ht="15.6" customHeight="1" spans="1:23">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>2</v>
@@ -2460,7 +2439,7 @@
       <c r="V3" s="7"/>
       <c r="W3" s="32"/>
     </row>
-    <row r="4" ht="14.25" spans="1:23">
+    <row r="4" customFormat="1" ht="14.25" spans="1:23">
       <c r="A4" s="5"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
@@ -2497,7 +2476,7 @@
       <c r="V4" s="35"/>
       <c r="W4" s="36"/>
     </row>
-    <row r="5" ht="14.25" spans="1:23">
+    <row r="5" customFormat="1" ht="14.25" spans="1:23">
       <c r="A5" s="5"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
@@ -2542,7 +2521,7 @@
       <c r="V5" s="35"/>
       <c r="W5" s="36"/>
     </row>
-    <row r="6" ht="31.5" customHeight="1" spans="1:23">
+    <row r="6" customFormat="1" ht="31.5" customHeight="1" spans="1:23">
       <c r="A6" s="5"/>
       <c r="B6" s="14" t="s">
         <v>20</v>
@@ -2609,7 +2588,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" ht="14.1" customHeight="1" spans="2:23">
+    <row r="7" customFormat="1" ht="14.1" customHeight="1" spans="2:23">
       <c r="B7" s="15">
         <v>0</v>
       </c>
@@ -2683,11 +2662,20 @@
       <c r="T7" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="41"/>
+      <c r="U7" s="16" t="str">
+        <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
+        <v/>
+      </c>
+      <c r="V7" s="16" t="str">
+        <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
+        <v/>
+      </c>
+      <c r="W7" s="41" t="str">
+        <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="8" spans="2:23">
+    <row r="8" customFormat="1" spans="2:23">
       <c r="B8" s="15">
         <v>0.0416666666666667</v>
       </c>
@@ -2759,11 +2747,20 @@
       <c r="T8" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="41"/>
+      <c r="U8" s="16" t="str">
+        <f>IF(_analysis_day_shift!B2="","",_analysis_day_shift!B2)</f>
+        <v/>
+      </c>
+      <c r="V8" s="16" t="str">
+        <f>IF(_analysis_day_shift!B3="","",_analysis_day_shift!B3)</f>
+        <v/>
+      </c>
+      <c r="W8" s="16" t="str">
+        <f>IF(_analysis_day_shift!B4="","",_analysis_day_shift!B4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="9" spans="2:23">
+    <row r="9" customFormat="1" spans="2:23">
       <c r="B9" s="15">
         <v>0.0833333333333333</v>
       </c>
@@ -2835,11 +2832,20 @@
       <c r="T9" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="41"/>
+      <c r="U9" s="16" t="str">
+        <f>IF(_analysis_day_shift!C2="","",_analysis_day_shift!C2)</f>
+        <v/>
+      </c>
+      <c r="V9" s="16" t="str">
+        <f>IF(_analysis_day_shift!C3="","",_analysis_day_shift!C3)</f>
+        <v/>
+      </c>
+      <c r="W9" s="41" t="str">
+        <f>IF(_analysis_day_shift!C4="","",_analysis_day_shift!C4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="10" ht="14.1" customHeight="1" spans="2:23">
+    <row r="10" customFormat="1" ht="14.1" customHeight="1" spans="2:23">
       <c r="B10" s="15">
         <v>0.125</v>
       </c>
@@ -2911,11 +2917,20 @@
       <c r="T10" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="41"/>
+      <c r="U10" s="16" t="str">
+        <f>IF(_analysis_day_shift!D2="","",_analysis_day_shift!D2)</f>
+        <v/>
+      </c>
+      <c r="V10" s="16" t="str">
+        <f>IF(_analysis_day_shift!D3="","",_analysis_day_shift!D3)</f>
+        <v/>
+      </c>
+      <c r="W10" s="41" t="str">
+        <f>IF(_analysis_day_shift!D4="","",_analysis_day_shift!D4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="11" spans="2:23">
+    <row r="11" customFormat="1" spans="2:23">
       <c r="B11" s="15">
         <v>0.166666666666667</v>
       </c>
@@ -2989,11 +3004,20 @@
       <c r="T11" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="41"/>
+      <c r="U11" s="16" t="str">
+        <f>IF(_analysis_day_shift!E2="","",_analysis_day_shift!E2)</f>
+        <v/>
+      </c>
+      <c r="V11" s="16" t="str">
+        <f>IF(_analysis_day_shift!E3="","",_analysis_day_shift!E3)</f>
+        <v/>
+      </c>
+      <c r="W11" s="41" t="str">
+        <f>IF(_analysis_day_shift!E4="","",_analysis_day_shift!E4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="12" spans="2:23">
+    <row r="12" customFormat="1" spans="2:23">
       <c r="B12" s="15">
         <v>0.208333333333333</v>
       </c>
@@ -3065,11 +3089,20 @@
       <c r="T12" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="41"/>
+      <c r="U12" s="16" t="str">
+        <f>IF(_analysis_day_shift!F2="","",_analysis_day_shift!F2)</f>
+        <v/>
+      </c>
+      <c r="V12" s="16" t="str">
+        <f>IF(_analysis_day_shift!F3="","",_analysis_day_shift!F3)</f>
+        <v/>
+      </c>
+      <c r="W12" s="41" t="str">
+        <f>IF(_analysis_day_shift!F4="","",_analysis_day_shift!F4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="13" ht="14.1" customHeight="1" spans="2:23">
+    <row r="13" customFormat="1" ht="14.1" customHeight="1" spans="2:23">
       <c r="B13" s="15">
         <v>0.25</v>
       </c>
@@ -3141,11 +3174,20 @@
         <v>48</v>
       </c>
       <c r="T13" s="45"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="41"/>
+      <c r="U13" s="16" t="str">
+        <f>IF(_analysis_day_shift!G2="","",_analysis_day_shift!G2)</f>
+        <v/>
+      </c>
+      <c r="V13" s="16" t="str">
+        <f>IF(_analysis_day_shift!G3="","",_analysis_day_shift!G3)</f>
+        <v/>
+      </c>
+      <c r="W13" s="41" t="str">
+        <f>IF(_analysis_day_shift!G4="","",_analysis_day_shift!G4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="14" spans="2:23">
+    <row r="14" customFormat="1" spans="2:23">
       <c r="B14" s="15">
         <v>0.291666666666667</v>
       </c>
@@ -3219,7 +3261,7 @@
       <c r="V14" s="48"/>
       <c r="W14" s="49"/>
     </row>
-    <row r="15" ht="14.1" customHeight="1" spans="2:23">
+    <row r="15" customFormat="1" ht="14.1" customHeight="1" spans="2:23">
       <c r="B15" s="15">
         <v>0.333333333333333</v>
       </c>
@@ -3293,7 +3335,7 @@
       <c r="V15" s="51"/>
       <c r="W15" s="52"/>
     </row>
-    <row r="16" spans="2:23">
+    <row r="16" customFormat="1" spans="2:23">
       <c r="B16" s="15">
         <v>0.375</v>
       </c>
@@ -3367,7 +3409,7 @@
       <c r="V16" s="51"/>
       <c r="W16" s="52"/>
     </row>
-    <row r="17" spans="2:23">
+    <row r="17" customFormat="1" spans="2:23">
       <c r="B17" s="15">
         <v>0.416666666666666</v>
       </c>
@@ -3441,7 +3483,7 @@
       <c r="V17" s="51"/>
       <c r="W17" s="52"/>
     </row>
-    <row r="18" ht="14.1" customHeight="1" spans="2:23">
+    <row r="18" customFormat="1" ht="14.1" customHeight="1" spans="2:23">
       <c r="B18" s="15">
         <v>0.458333333333333</v>
       </c>
@@ -3515,7 +3557,7 @@
       <c r="V18" s="51"/>
       <c r="W18" s="52"/>
     </row>
-    <row r="19" ht="14.1" customHeight="1" spans="2:23">
+    <row r="19" customFormat="1" ht="14.1" customHeight="1" spans="2:23">
       <c r="B19" s="15">
         <v>0.5</v>
       </c>
@@ -3589,7 +3631,7 @@
       <c r="V19" s="51"/>
       <c r="W19" s="52"/>
     </row>
-    <row r="20" ht="14.1" customHeight="1" spans="2:23">
+    <row r="20" customFormat="1" ht="14.1" customHeight="1" spans="2:23">
       <c r="B20" s="15">
         <v>0.541666666666666</v>
       </c>
@@ -3663,7 +3705,7 @@
       <c r="V20" s="51"/>
       <c r="W20" s="52"/>
     </row>
-    <row r="21" ht="14.1" customHeight="1" spans="2:23">
+    <row r="21" customFormat="1" ht="14.1" customHeight="1" spans="2:23">
       <c r="B21" s="15">
         <v>0.583333333333333</v>
       </c>
@@ -3737,7 +3779,7 @@
       <c r="V21" s="51"/>
       <c r="W21" s="52"/>
     </row>
-    <row r="22" spans="2:23">
+    <row r="22" customFormat="1" spans="2:23">
       <c r="B22" s="15">
         <v>0.625</v>
       </c>
@@ -3811,7 +3853,7 @@
       <c r="V22" s="51"/>
       <c r="W22" s="52"/>
     </row>
-    <row r="23" spans="2:23">
+    <row r="23" customFormat="1" spans="2:23">
       <c r="B23" s="15">
         <v>0.666666666666667</v>
       </c>
@@ -3885,7 +3927,7 @@
       <c r="V23" s="51"/>
       <c r="W23" s="52"/>
     </row>
-    <row r="24" spans="2:23">
+    <row r="24" customFormat="1" spans="2:23">
       <c r="B24" s="15">
         <v>0.708333333333333</v>
       </c>
@@ -3959,7 +4001,7 @@
       <c r="V24" s="51"/>
       <c r="W24" s="52"/>
     </row>
-    <row r="25" spans="2:23">
+    <row r="25" customFormat="1" spans="2:23">
       <c r="B25" s="15">
         <v>0.75</v>
       </c>
@@ -4033,7 +4075,7 @@
       <c r="V25" s="51"/>
       <c r="W25" s="52"/>
     </row>
-    <row r="26" spans="2:23">
+    <row r="26" customFormat="1" spans="2:23">
       <c r="B26" s="15">
         <v>0.791666666666667</v>
       </c>
@@ -4107,7 +4149,7 @@
       <c r="V26" s="51"/>
       <c r="W26" s="52"/>
     </row>
-    <row r="27" spans="2:23">
+    <row r="27" customFormat="1" spans="2:23">
       <c r="B27" s="15">
         <v>0.833333333333333</v>
       </c>
@@ -4181,7 +4223,7 @@
       <c r="V27" s="51"/>
       <c r="W27" s="52"/>
     </row>
-    <row r="28" spans="2:23">
+    <row r="28" customFormat="1" spans="2:23">
       <c r="B28" s="15">
         <v>0.875</v>
       </c>
@@ -4255,7 +4297,7 @@
       <c r="V28" s="51"/>
       <c r="W28" s="52"/>
     </row>
-    <row r="29" spans="2:23">
+    <row r="29" customFormat="1" spans="2:23">
       <c r="B29" s="15">
         <v>0.916666666666667</v>
       </c>
@@ -4329,7 +4371,7 @@
       <c r="V29" s="51"/>
       <c r="W29" s="52"/>
     </row>
-    <row r="30" spans="2:23">
+    <row r="30" customFormat="1" spans="2:23">
       <c r="B30" s="15">
         <v>0.958333333333333</v>
       </c>
@@ -4403,7 +4445,7 @@
       <c r="V30" s="51"/>
       <c r="W30" s="52"/>
     </row>
-    <row r="31" spans="2:23">
+    <row r="31" customFormat="1" spans="2:23">
       <c r="B31" s="17" t="s">
         <v>49</v>
       </c>
@@ -4429,7 +4471,7 @@
       <c r="V31" s="51"/>
       <c r="W31" s="52"/>
     </row>
-    <row r="32" spans="2:23">
+    <row r="32" customFormat="1" spans="2:23">
       <c r="B32" s="17" t="s">
         <v>50</v>
       </c>
@@ -4455,7 +4497,7 @@
       <c r="V32" s="51"/>
       <c r="W32" s="52"/>
     </row>
-    <row r="33" spans="2:23">
+    <row r="33" customFormat="1" spans="2:23">
       <c r="B33" s="17" t="s">
         <v>51</v>
       </c>
@@ -4481,7 +4523,7 @@
       <c r="V33" s="51"/>
       <c r="W33" s="52"/>
     </row>
-    <row r="34" ht="14.25" spans="2:23">
+    <row r="34" customFormat="1" ht="14.25" spans="2:23">
       <c r="B34" s="17" t="s">
         <v>52</v>
       </c>
@@ -4507,7 +4549,7 @@
       <c r="V34" s="51"/>
       <c r="W34" s="52"/>
     </row>
-    <row r="35" ht="65.45" customHeight="1" spans="2:23">
+    <row r="35" customFormat="1" ht="65.45" customHeight="1" spans="2:23">
       <c r="B35" s="18" t="s">
         <v>53</v>
       </c>
@@ -4537,7 +4579,7 @@
       <c r="V35" s="51"/>
       <c r="W35" s="52"/>
     </row>
-    <row r="36" ht="16.5" spans="2:23">
+    <row r="36" customFormat="1" ht="16.5" spans="2:23">
       <c r="B36" s="20" t="s">
         <v>56</v>
       </c>
@@ -4568,11 +4610,10 @@
       <c r="W36" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="32">
     <mergeCell ref="B1:R1"/>
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="L2:Q2"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
@@ -4620,7 +4661,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="45" spans="1:16">
+    <row r="1" customFormat="1" ht="45" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -4698,7 +4739,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excel/finished/焦化/CK67-硫铵（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-硫铵（日）报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="4.硫铵（日）" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>6-7#  焦炉硫铵 操 作 记 录</t>
   </si>
@@ -411,6 +411,15 @@
       <t>接班：</t>
     </r>
   </si>
+  <si>
+    <t>MSSA/N2</t>
+  </si>
+  <si>
+    <t>MSSA/游离酸</t>
+  </si>
+  <si>
+    <t>MSSA/H2O</t>
+  </si>
 </sst>
 </file>
 
@@ -419,8 +428,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -495,105 +504,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,7 +521,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -617,9 +538,91 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -631,9 +634,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,31 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,25 +703,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,19 +721,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,7 +745,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,7 +769,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,49 +841,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,47 +1229,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1282,11 +1252,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1305,25 +1323,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1332,133 +1341,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -2335,7 +2344,7 @@
   <sheetPr/>
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2:Q2"/>
     </sheetView>
   </sheetViews>
@@ -4736,14 +4745,26 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/excel/finished/焦化/CK67-硫铵（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-硫铵（日）报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="4.硫铵（日）" sheetId="1" r:id="rId1"/>
@@ -427,9 +427,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -504,55 +504,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,9 +527,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,7 +557,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,12 +573,58 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -611,40 +641,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -679,7 +679,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,13 +715,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,19 +751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,25 +763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,25 +775,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,7 +787,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,7 +799,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,31 +823,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,54 +1222,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1300,11 +1252,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1323,16 +1305,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1341,133 +1341,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -2344,7 +2344,7 @@
   <sheetPr/>
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:Q2"/>
     </sheetView>
   </sheetViews>
@@ -4747,7 +4747,7 @@
   <sheetPr/>
   <dimension ref="B1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>

--- a/excel/finished/焦化/CK67-硫铵（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-硫铵（日）报表设计.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="4.硫铵（日）" sheetId="1" r:id="rId1"/>
     <sheet name="_liuan_day_hour" sheetId="2" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
-    <sheet name="_analysis_day_shift" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>6-7#  焦炉硫铵 操 作 记 录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年    月    日   </t>
   </si>
   <si>
     <t xml:space="preserve">    SGSSG-BSMCSA35-G010-01A</t>
@@ -411,25 +412,16 @@
       <t>接班：</t>
     </r>
   </si>
-  <si>
-    <t>MSSA/N2</t>
-  </si>
-  <si>
-    <t>MSSA/游离酸</t>
-  </si>
-  <si>
-    <t>MSSA/H2O</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -505,21 +497,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -527,15 +504,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,7 +534,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,14 +565,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,45 +579,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,7 +617,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -641,10 +625,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -679,7 +671,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,13 +767,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,19 +821,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,133 +845,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,17 +1214,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1252,6 +1233,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1263,6 +1253,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1291,6 +1290,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1305,169 +1315,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -1543,7 +1535,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1948,7 +1940,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -2345,7 +2337,7 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:Q2"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2390,9 +2382,8 @@
       <c r="I2" s="4"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="24" t="str">
-        <f>IF(_metadata!B2="","",_metadata!B2)</f>
-        <v/>
+      <c r="L2" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
@@ -2400,16 +2391,16 @@
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
       <c r="R2" s="23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="15.6" customHeight="1" spans="1:23">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -2418,30 +2409,30 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" s="26"/>
       <c r="N3" s="27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R3" s="30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S3" s="31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -2452,26 +2443,26 @@
       <c r="A4" s="5"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
@@ -2489,35 +2480,35 @@
       <c r="A5" s="5"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="F5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="H5" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="28" t="s">
-        <v>18</v>
-      </c>
       <c r="M5" s="28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N5" s="28"/>
       <c r="O5" s="28"/>
@@ -2533,68 +2524,68 @@
     <row r="6" customFormat="1" ht="31.5" customHeight="1" spans="1:23">
       <c r="A6" s="5"/>
       <c r="B6" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S6" s="38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T6" s="39"/>
       <c r="U6" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W6" s="41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="14.1" customHeight="1" spans="2:23">
@@ -2666,23 +2657,14 @@
         <v/>
       </c>
       <c r="S7" s="43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T7" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="U7" s="16" t="str">
-        <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
-        <v/>
-      </c>
-      <c r="V7" s="16" t="str">
-        <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
-        <v/>
-      </c>
-      <c r="W7" s="41" t="str">
-        <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
-        <v/>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="41"/>
     </row>
     <row r="8" customFormat="1" spans="2:23">
       <c r="B8" s="15">
@@ -2754,20 +2736,11 @@
       </c>
       <c r="S8" s="43"/>
       <c r="T8" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="U8" s="16" t="str">
-        <f>IF(_analysis_day_shift!B2="","",_analysis_day_shift!B2)</f>
-        <v/>
-      </c>
-      <c r="V8" s="16" t="str">
-        <f>IF(_analysis_day_shift!B3="","",_analysis_day_shift!B3)</f>
-        <v/>
-      </c>
-      <c r="W8" s="16" t="str">
-        <f>IF(_analysis_day_shift!B4="","",_analysis_day_shift!B4)</f>
-        <v/>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="41"/>
     </row>
     <row r="9" customFormat="1" spans="2:23">
       <c r="B9" s="15">
@@ -2839,20 +2812,11 @@
       </c>
       <c r="S9" s="43"/>
       <c r="T9" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="U9" s="16" t="str">
-        <f>IF(_analysis_day_shift!C2="","",_analysis_day_shift!C2)</f>
-        <v/>
-      </c>
-      <c r="V9" s="16" t="str">
-        <f>IF(_analysis_day_shift!C3="","",_analysis_day_shift!C3)</f>
-        <v/>
-      </c>
-      <c r="W9" s="41" t="str">
-        <f>IF(_analysis_day_shift!C4="","",_analysis_day_shift!C4)</f>
-        <v/>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="41"/>
     </row>
     <row r="10" customFormat="1" ht="14.1" customHeight="1" spans="2:23">
       <c r="B10" s="15">
@@ -2924,20 +2888,11 @@
       </c>
       <c r="S10" s="43"/>
       <c r="T10" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="U10" s="16" t="str">
-        <f>IF(_analysis_day_shift!D2="","",_analysis_day_shift!D2)</f>
-        <v/>
-      </c>
-      <c r="V10" s="16" t="str">
-        <f>IF(_analysis_day_shift!D3="","",_analysis_day_shift!D3)</f>
-        <v/>
-      </c>
-      <c r="W10" s="41" t="str">
-        <f>IF(_analysis_day_shift!D4="","",_analysis_day_shift!D4)</f>
-        <v/>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="41"/>
     </row>
     <row r="11" customFormat="1" spans="2:23">
       <c r="B11" s="15">
@@ -3008,23 +2963,14 @@
         <v/>
       </c>
       <c r="S11" s="43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T11" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="U11" s="16" t="str">
-        <f>IF(_analysis_day_shift!E2="","",_analysis_day_shift!E2)</f>
-        <v/>
-      </c>
-      <c r="V11" s="16" t="str">
-        <f>IF(_analysis_day_shift!E3="","",_analysis_day_shift!E3)</f>
-        <v/>
-      </c>
-      <c r="W11" s="41" t="str">
-        <f>IF(_analysis_day_shift!E4="","",_analysis_day_shift!E4)</f>
-        <v/>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="41"/>
     </row>
     <row r="12" customFormat="1" spans="2:23">
       <c r="B12" s="15">
@@ -3096,20 +3042,11 @@
       </c>
       <c r="S12" s="43"/>
       <c r="T12" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="U12" s="16" t="str">
-        <f>IF(_analysis_day_shift!F2="","",_analysis_day_shift!F2)</f>
-        <v/>
-      </c>
-      <c r="V12" s="16" t="str">
-        <f>IF(_analysis_day_shift!F3="","",_analysis_day_shift!F3)</f>
-        <v/>
-      </c>
-      <c r="W12" s="41" t="str">
-        <f>IF(_analysis_day_shift!F4="","",_analysis_day_shift!F4)</f>
-        <v/>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="41"/>
     </row>
     <row r="13" customFormat="1" ht="14.1" customHeight="1" spans="2:23">
       <c r="B13" s="15">
@@ -3180,21 +3117,12 @@
         <v/>
       </c>
       <c r="S13" s="46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T13" s="45"/>
-      <c r="U13" s="16" t="str">
-        <f>IF(_analysis_day_shift!G2="","",_analysis_day_shift!G2)</f>
-        <v/>
-      </c>
-      <c r="V13" s="16" t="str">
-        <f>IF(_analysis_day_shift!G3="","",_analysis_day_shift!G3)</f>
-        <v/>
-      </c>
-      <c r="W13" s="41" t="str">
-        <f>IF(_analysis_day_shift!G4="","",_analysis_day_shift!G4)</f>
-        <v/>
-      </c>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="41"/>
     </row>
     <row r="14" customFormat="1" spans="2:23">
       <c r="B14" s="15">
@@ -4456,7 +4384,7 @@
     </row>
     <row r="31" customFormat="1" spans="2:23">
       <c r="B31" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -4482,7 +4410,7 @@
     </row>
     <row r="32" customFormat="1" spans="2:23">
       <c r="B32" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -4508,7 +4436,7 @@
     </row>
     <row r="33" customFormat="1" spans="2:23">
       <c r="B33" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -4534,7 +4462,7 @@
     </row>
     <row r="34" customFormat="1" ht="14.25" spans="2:23">
       <c r="B34" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -4560,21 +4488,21 @@
     </row>
     <row r="35" customFormat="1" ht="65.45" customHeight="1" spans="2:23">
       <c r="B35" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
       <c r="K35" s="29"/>
       <c r="L35" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M35" s="19"/>
       <c r="N35" s="19"/>
@@ -4590,21 +4518,21 @@
     </row>
     <row r="36" customFormat="1" ht="16.5" spans="2:23">
       <c r="B36" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="22"/>
       <c r="G36" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="22"/>
       <c r="L36" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M36" s="21"/>
       <c r="N36" s="21"/>
@@ -4672,96 +4600,52 @@
   <sheetData>
     <row r="1" customFormat="1" ht="45" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
